--- a/Data/BK/ELO17-18_score.xlsx
+++ b/Data/BK/ELO17-18_score.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Team</t>
   </si>
@@ -125,18 +125,27 @@
     <t>GW32</t>
   </si>
   <si>
+    <t>GW33</t>
+  </si>
+  <si>
+    <t>GW34</t>
+  </si>
+  <si>
+    <t>GW35</t>
+  </si>
+  <si>
     <t>MCI</t>
   </si>
   <si>
+    <t>LIV</t>
+  </si>
+  <si>
     <t>TOT</t>
   </si>
   <si>
     <t>MUN</t>
   </si>
   <si>
-    <t>LIV</t>
-  </si>
-  <si>
     <t>CHE</t>
   </si>
   <si>
@@ -146,40 +155,40 @@
     <t>LEI</t>
   </si>
   <si>
+    <t>BUR</t>
+  </si>
+  <si>
+    <t>EVE</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
     <t>BOU</t>
   </si>
   <si>
-    <t>EVE</t>
-  </si>
-  <si>
-    <t>BUR</t>
+    <t>CRY</t>
+  </si>
+  <si>
+    <t>SWA</t>
+  </si>
+  <si>
+    <t>WHU</t>
   </si>
   <si>
     <t>SOU</t>
   </si>
   <si>
-    <t>CRY</t>
-  </si>
-  <si>
-    <t>WHU</t>
-  </si>
-  <si>
-    <t>SWA</t>
-  </si>
-  <si>
     <t>WAT</t>
   </si>
   <si>
+    <t>BHA</t>
+  </si>
+  <si>
     <t>STK</t>
   </si>
   <si>
-    <t>NEW</t>
-  </si>
-  <si>
     <t>WBA</t>
-  </si>
-  <si>
-    <t>BHA</t>
   </si>
   <si>
     <t>HUD</t>
@@ -218,8 +227,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,16 +510,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG21"/>
+  <dimension ref="A1:AJ21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -608,10 +618,19 @@
       <c r="AG1" t="s">
         <v>32</v>
       </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>1.0915585746493719</v>
@@ -709,212 +728,239 @@
       <c r="AG2">
         <v>1.1569671058371869</v>
       </c>
+      <c r="AH2">
+        <v>1.1484447539461466</v>
+      </c>
+      <c r="AI2">
+        <v>1.1359614770980186</v>
+      </c>
+      <c r="AJ2">
+        <v>1.1435367834764447</v>
+      </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B3">
+        <v>1.0745761719321874</v>
+      </c>
+      <c r="C3">
+        <v>1.0758717364639916</v>
+      </c>
+      <c r="D3">
+        <v>1.0798354869760523</v>
+      </c>
+      <c r="E3">
+        <v>1.0862526616690487</v>
+      </c>
+      <c r="F3">
+        <v>1.0760689474755107</v>
+      </c>
+      <c r="G3">
+        <v>1.0729263746505127</v>
+      </c>
+      <c r="H3">
+        <v>1.0736311781567596</v>
+      </c>
+      <c r="I3">
+        <v>1.0713148217853317</v>
+      </c>
+      <c r="J3">
+        <v>1.0717367543001783</v>
+      </c>
+      <c r="K3">
+        <v>1.0707578515500853</v>
+      </c>
+      <c r="L3">
+        <v>1.073193284595602</v>
+      </c>
+      <c r="M3">
+        <v>1.0777543413562947</v>
+      </c>
+      <c r="N3">
+        <v>1.080502962855904</v>
+      </c>
+      <c r="O3">
+        <v>1.0823241732650211</v>
+      </c>
+      <c r="P3">
+        <v>1.0864312538208496</v>
+      </c>
+      <c r="Q3">
+        <v>1.0939724037763254</v>
+      </c>
+      <c r="R3">
+        <v>1.0907717340771734</v>
+      </c>
+      <c r="S3">
+        <v>1.0864197530864197</v>
+      </c>
+      <c r="T3">
+        <v>1.0910358450008715</v>
+      </c>
+      <c r="U3">
+        <v>1.0910041537165598</v>
+      </c>
+      <c r="V3">
+        <v>1.093327911232463</v>
+      </c>
+      <c r="W3">
+        <v>1.0951979780960404</v>
+      </c>
+      <c r="X3">
+        <v>1.0980073200488003</v>
+      </c>
+      <c r="Y3">
+        <v>1.1032038806750517</v>
+      </c>
+      <c r="Z3">
+        <v>1.0950707293693904</v>
+      </c>
+      <c r="AA3">
+        <v>1.0974263637948063</v>
+      </c>
+      <c r="AB3">
+        <v>1.0968135475063179</v>
+      </c>
+      <c r="AC3">
+        <v>1.1061959695839478</v>
+      </c>
+      <c r="AD3">
+        <v>1.1084448813206511</v>
+      </c>
+      <c r="AE3">
+        <v>1.1094383323682686</v>
+      </c>
+      <c r="AF3">
+        <v>1.1062963501526828</v>
+      </c>
+      <c r="AG3">
+        <v>1.1086874327429252</v>
+      </c>
+      <c r="AH3">
+        <v>1.120589600742804</v>
+      </c>
+      <c r="AI3">
+        <v>1.122617700809329</v>
+      </c>
+      <c r="AJ3">
+        <v>1.1243908099326991</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4">
         <v>1.1038561766169881</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>1.1062437941709014</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>1.100253770090132</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>1.0961701134673161</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>1.1062988692846554</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>1.1020503261882573</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>1.1072183455424618</v>
       </c>
-      <c r="I3">
+      <c r="I4">
         <v>1.1089556128210325</v>
       </c>
-      <c r="J3">
+      <c r="J4">
         <v>1.1097048840821493</v>
       </c>
-      <c r="K3">
+      <c r="K4">
         <v>1.1169859293288262</v>
       </c>
-      <c r="L3">
+      <c r="L4">
         <v>1.1200046233420984</v>
       </c>
-      <c r="M3">
+      <c r="M4">
         <v>1.1205177843913432</v>
       </c>
-      <c r="N3">
+      <c r="N4">
         <v>1.1169244110420582</v>
       </c>
-      <c r="O3">
+      <c r="O4">
         <v>1.1143455985095483</v>
       </c>
-      <c r="P3">
+      <c r="P4">
         <v>1.1073913423190009</v>
       </c>
-      <c r="Q3">
+      <c r="Q4">
         <v>1.1055918663761801</v>
       </c>
-      <c r="R3">
+      <c r="R4">
         <v>1.1082054858205486</v>
       </c>
-      <c r="S3">
+      <c r="S4">
         <v>1.1090777051561365</v>
       </c>
-      <c r="T3">
+      <c r="T4">
         <v>1.1043978388427351</v>
       </c>
-      <c r="U3">
+      <c r="U4">
         <v>1.1090132744648096</v>
       </c>
-      <c r="V3">
+      <c r="V4">
         <v>1.110756092601737</v>
       </c>
-      <c r="W3">
+      <c r="W4">
         <v>1.1108851639891932</v>
       </c>
-      <c r="X3">
+      <c r="X4">
         <v>1.1090454888746877</v>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <v>1.1119179713596887</v>
       </c>
-      <c r="Z3">
+      <c r="Z4">
         <v>1.1084323350858338</v>
       </c>
-      <c r="AA3">
+      <c r="AA4">
         <v>1.1142740951606345</v>
       </c>
-      <c r="AB3">
+      <c r="AB4">
         <v>1.1148226682545677</v>
       </c>
-      <c r="AC3">
+      <c r="AC4">
         <v>1.1189175123601354</v>
       </c>
-      <c r="AD3">
+      <c r="AD4">
         <v>1.1205874700049148</v>
       </c>
-      <c r="AE3">
+      <c r="AE4">
         <v>1.1134916039374638</v>
       </c>
-      <c r="AF3">
+      <c r="AF4">
         <v>1.1179293296495565</v>
       </c>
-      <c r="AG3">
+      <c r="AG4">
         <v>1.1179943576767588</v>
       </c>
+      <c r="AH4">
+        <v>1.1234911792014857</v>
+      </c>
+      <c r="AI4">
+        <v>1.1249383575551881</v>
+      </c>
+      <c r="AJ4">
+        <v>1.1139475516361106</v>
+      </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4">
-        <v>1.0745761719321874</v>
-      </c>
-      <c r="C4">
-        <v>1.0758717364639916</v>
-      </c>
-      <c r="D4">
-        <v>1.0798354869760523</v>
-      </c>
-      <c r="E4">
-        <v>1.0862526616690487</v>
-      </c>
-      <c r="F4">
-        <v>1.0760689474755107</v>
-      </c>
-      <c r="G4">
-        <v>1.0729263746505127</v>
-      </c>
-      <c r="H4">
-        <v>1.0736311781567596</v>
-      </c>
-      <c r="I4">
-        <v>1.0713148217853317</v>
-      </c>
-      <c r="J4">
-        <v>1.0717367543001783</v>
-      </c>
-      <c r="K4">
-        <v>1.0707578515500853</v>
-      </c>
-      <c r="L4">
-        <v>1.073193284595602</v>
-      </c>
-      <c r="M4">
-        <v>1.0777543413562947</v>
-      </c>
-      <c r="N4">
-        <v>1.080502962855904</v>
-      </c>
-      <c r="O4">
-        <v>1.0823241732650211</v>
-      </c>
-      <c r="P4">
-        <v>1.0864312538208496</v>
-      </c>
-      <c r="Q4">
-        <v>1.0939724037763254</v>
-      </c>
-      <c r="R4">
-        <v>1.0907717340771734</v>
-      </c>
-      <c r="S4">
-        <v>1.0864197530864197</v>
-      </c>
-      <c r="T4">
-        <v>1.0910358450008715</v>
-      </c>
-      <c r="U4">
-        <v>1.0910041537165598</v>
-      </c>
-      <c r="V4">
-        <v>1.093327911232463</v>
-      </c>
-      <c r="W4">
-        <v>1.0951979780960404</v>
-      </c>
-      <c r="X4">
-        <v>1.0980073200488003</v>
-      </c>
-      <c r="Y4">
-        <v>1.1032038806750517</v>
-      </c>
-      <c r="Z4">
-        <v>1.0950707293693904</v>
-      </c>
-      <c r="AA4">
-        <v>1.0974263637948063</v>
-      </c>
-      <c r="AB4">
-        <v>1.0968135475063179</v>
-      </c>
-      <c r="AC4">
-        <v>1.1061959695839478</v>
-      </c>
-      <c r="AD4">
-        <v>1.1084448813206511</v>
-      </c>
-      <c r="AE4">
-        <v>1.1094383323682686</v>
-      </c>
-      <c r="AF4">
-        <v>1.1062963501526828</v>
-      </c>
-      <c r="AG4">
-        <v>1.1086874327429252</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>1.0862881738061076</v>
@@ -1012,10 +1058,19 @@
       <c r="AG5">
         <v>1.0970537765756332</v>
       </c>
+      <c r="AH5">
+        <v>1.0985376044568245</v>
+      </c>
+      <c r="AI5">
+        <v>1.105212775215386</v>
+      </c>
+      <c r="AJ5">
+        <v>1.0988628452077049</v>
+      </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>1.1167393786783004</v>
@@ -1113,10 +1168,19 @@
       <c r="AG6">
         <v>1.0778582438996014</v>
       </c>
+      <c r="AH6">
+        <v>1.0712627669452182</v>
+      </c>
+      <c r="AI6">
+        <v>1.0675021030951759</v>
+      </c>
+      <c r="AJ6">
+        <v>1.0739150614991877</v>
+      </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>1.0804321728691475</v>
@@ -1214,10 +1278,19 @@
       <c r="AG7">
         <v>1.0574993456068404</v>
       </c>
+      <c r="AH7">
+        <v>1.0660399257195914</v>
+      </c>
+      <c r="AI7">
+        <v>1.0680822672816406</v>
+      </c>
+      <c r="AJ7">
+        <v>1.0617312601531679</v>
+      </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>1.0037185605949697</v>
@@ -1315,10 +1388,19 @@
       <c r="AG8">
         <v>1.004566210045662</v>
       </c>
+      <c r="AH8">
+        <v>1.00974930362117</v>
+      </c>
+      <c r="AI8">
+        <v>1.0031038783975865</v>
+      </c>
+      <c r="AJ8">
+        <v>0.99675098630772807</v>
+      </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>0.95218575234972036</v>
@@ -1416,10 +1498,19 @@
       <c r="AG9">
         <v>0.98478899456126567</v>
       </c>
+      <c r="AH9">
+        <v>0.98827762302692668</v>
+      </c>
+      <c r="AI9">
+        <v>0.99324108722768534</v>
+      </c>
+      <c r="AJ9">
+        <v>0.99326990020886519</v>
+      </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>1.0242145638743301</v>
@@ -1517,212 +1608,239 @@
       <c r="AG10">
         <v>0.98478899456126567</v>
       </c>
+      <c r="AH10">
+        <v>0.98189415041782724</v>
+      </c>
+      <c r="AI10">
+        <v>0.98453862443071383</v>
+      </c>
+      <c r="AJ10">
+        <v>0.9851473659781852</v>
+      </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B11">
+        <v>0.94925775188124029</v>
+      </c>
+      <c r="C11">
+        <v>0.94562233514397531</v>
+      </c>
+      <c r="D11">
+        <v>0.940407782282764</v>
+      </c>
+      <c r="E11">
+        <v>0.94799171601085086</v>
+      </c>
+      <c r="F11">
+        <v>0.95398657093858086</v>
+      </c>
+      <c r="G11">
+        <v>0.95817800559179878</v>
+      </c>
+      <c r="H11">
+        <v>0.9531806468425168</v>
+      </c>
+      <c r="I11">
+        <v>0.95549700321394448</v>
+      </c>
+      <c r="J11">
+        <v>0.95438071679226832</v>
+      </c>
+      <c r="K11">
+        <v>0.9603883158533415</v>
+      </c>
+      <c r="L11">
+        <v>0.95645389661051239</v>
+      </c>
+      <c r="M11">
+        <v>0.95119766534716399</v>
+      </c>
+      <c r="N11">
+        <v>0.94927012574071401</v>
+      </c>
+      <c r="O11">
+        <v>0.94084769445738248</v>
+      </c>
+      <c r="P11">
+        <v>0.94203953305580623</v>
+      </c>
+      <c r="Q11">
+        <v>0.94059549745824256</v>
+      </c>
+      <c r="R11">
+        <v>0.93677359367735935</v>
+      </c>
+      <c r="S11">
+        <v>0.93246187363834421</v>
+      </c>
+      <c r="T11">
+        <v>0.93127287515250101</v>
+      </c>
+      <c r="U11">
+        <v>0.93763615766694752</v>
+      </c>
+      <c r="V11">
+        <v>0.93647427890899593</v>
+      </c>
+      <c r="W11">
+        <v>0.93542108473985408</v>
+      </c>
+      <c r="X11">
+        <v>0.94114913147040036</v>
+      </c>
+      <c r="Y11">
+        <v>0.94054085456182657</v>
+      </c>
+      <c r="Z11">
+        <v>0.93937897580387486</v>
+      </c>
+      <c r="AA11">
+        <v>0.93940626270841809</v>
+      </c>
+      <c r="AB11">
+        <v>0.94112179394080231</v>
+      </c>
+      <c r="AC11">
+        <v>0.94891144071471945</v>
+      </c>
+      <c r="AD11">
+        <v>0.95001300991644744</v>
+      </c>
+      <c r="AE11">
+        <v>0.94904458598726116</v>
+      </c>
+      <c r="AF11">
+        <v>0.9568125636178566</v>
+      </c>
+      <c r="AG11">
+        <v>0.95686821975976499</v>
+      </c>
+      <c r="AH11">
+        <v>0.95926183844011137</v>
+      </c>
+      <c r="AI11">
+        <v>0.96597337046384124</v>
+      </c>
+      <c r="AJ11">
+        <v>0.9723833836156881</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12">
         <v>0.96682575469212073</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>0.96314467612873089</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>0.95382551118630221</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>0.95149199311612165</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>0.94875446908699823</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>0.95235321528424977</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <v>0.94912702319251818</v>
       </c>
-      <c r="I11">
+      <c r="I12">
         <v>0.94970611228537516</v>
       </c>
-      <c r="J11">
+      <c r="J12">
         <v>0.94575159638727491</v>
       </c>
-      <c r="K11">
+      <c r="K12">
         <v>0.95460980613099888</v>
       </c>
-      <c r="L11">
+      <c r="L12">
         <v>0.95298639003669783</v>
       </c>
-      <c r="M11">
+      <c r="M12">
         <v>0.958132277731226</v>
       </c>
-      <c r="N11">
+      <c r="N12">
         <v>0.96314496314496312</v>
       </c>
-      <c r="O11">
+      <c r="O12">
         <v>0.96413600372612951</v>
       </c>
-      <c r="P11">
+      <c r="P12">
         <v>0.95892404879042825</v>
       </c>
-      <c r="Q11">
+      <c r="Q12">
         <v>0.9580246913580247</v>
       </c>
-      <c r="R11">
+      <c r="R12">
         <v>0.95885634588563462</v>
       </c>
-      <c r="S11">
+      <c r="S12">
         <v>0.95744371822803198</v>
       </c>
-      <c r="T11">
+      <c r="T12">
         <v>0.95276825655028174</v>
       </c>
-      <c r="U11">
+      <c r="U12">
         <v>0.95157870276236678</v>
       </c>
-      <c r="V11">
+      <c r="V12">
         <v>0.95041682400441518</v>
       </c>
-      <c r="W11">
+      <c r="W12">
         <v>0.95517531882752804</v>
       </c>
-      <c r="X11">
+      <c r="X12">
         <v>0.95567303782025215</v>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <v>0.9626165509629071</v>
       </c>
-      <c r="Z11">
+      <c r="Z12">
         <v>0.9637784297208587</v>
       </c>
-      <c r="AA11">
+      <c r="AA12">
         <v>0.97833033172602102</v>
       </c>
-      <c r="AB11">
+      <c r="AB12">
         <v>0.98178755046910859</v>
       </c>
-      <c r="AC11">
+      <c r="AC12">
         <v>0.97030676265648952</v>
       </c>
-      <c r="AD11">
+      <c r="AD12">
         <v>0.96909422070600482</v>
       </c>
-      <c r="AE11">
+      <c r="AE12">
         <v>0.97046902142443547</v>
       </c>
-      <c r="AF11">
+      <c r="AF12">
         <v>0.9678638941398866</v>
       </c>
-      <c r="AG11">
+      <c r="AG12">
         <v>0.97024692435215076</v>
       </c>
+      <c r="AH12">
+        <v>0.97086815227483747</v>
+      </c>
+      <c r="AI12">
+        <v>0.96945435558262982</v>
+      </c>
+      <c r="AJ12">
+        <v>0.96426084938500822</v>
+      </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12">
-        <v>0.96448335431733667</v>
-      </c>
-      <c r="C12">
-        <v>0.96606506629285682</v>
-      </c>
-      <c r="D12">
-        <v>0.96024268587929873</v>
-      </c>
-      <c r="E12">
-        <v>0.96782661960738559</v>
-      </c>
-      <c r="F12">
-        <v>0.96096270674069117</v>
-      </c>
-      <c r="G12">
-        <v>0.96575023299161233</v>
-      </c>
-      <c r="H12">
-        <v>0.95897153777108612</v>
-      </c>
-      <c r="I12">
-        <v>0.95549700321394448</v>
-      </c>
-      <c r="J12">
-        <v>0.95553126617960082</v>
-      </c>
-      <c r="K12">
-        <v>0.95345410418653032</v>
-      </c>
-      <c r="L12">
-        <v>0.95183055451209297</v>
-      </c>
-      <c r="M12">
-        <v>0.94599670605911756</v>
-      </c>
-      <c r="N12">
-        <v>0.94175458881341234</v>
-      </c>
-      <c r="O12">
-        <v>0.94201210992081985</v>
-      </c>
-      <c r="P12">
-        <v>0.94087508369479789</v>
-      </c>
-      <c r="Q12">
-        <v>0.93769063180827883</v>
-      </c>
-      <c r="R12">
-        <v>0.94200371920037196</v>
-      </c>
-      <c r="S12">
-        <v>0.93885257806826439</v>
-      </c>
-      <c r="T12">
-        <v>0.93533956893045955</v>
-      </c>
-      <c r="U12">
-        <v>0.93473146077206848</v>
-      </c>
-      <c r="V12">
-        <v>0.93240770325616529</v>
-      </c>
-      <c r="W12">
-        <v>0.93832611916451203</v>
-      </c>
-      <c r="X12">
-        <v>0.93592052518445368</v>
-      </c>
-      <c r="Y12">
-        <v>0.93705521828797167</v>
-      </c>
-      <c r="Z12">
-        <v>0.94518836959363295</v>
-      </c>
-      <c r="AA12">
-        <v>0.95509208156625813</v>
-      </c>
-      <c r="AB12">
-        <v>0.95738809655212487</v>
-      </c>
-      <c r="AC12">
-        <v>0.96105473154653487</v>
-      </c>
-      <c r="AD12">
-        <v>0.95348232096909424</v>
-      </c>
-      <c r="AE12">
-        <v>0.9606253618992473</v>
-      </c>
-      <c r="AF12">
-        <v>0.96030245746691867</v>
-      </c>
-      <c r="AG12">
-        <v>0.96035831660995252</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B13">
         <v>0.96038415366146457</v>
@@ -1820,414 +1938,459 @@
       <c r="AG13">
         <v>0.9586132681848587</v>
       </c>
+      <c r="AH13">
+        <v>0.95636025998142993</v>
+      </c>
+      <c r="AI13">
+        <v>0.9578510718533344</v>
+      </c>
+      <c r="AJ13">
+        <v>0.9613599443026225</v>
+      </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B14">
-        <v>0.9890785582525693</v>
+        <v>0.96448335431733667</v>
       </c>
       <c r="C14">
-        <v>0.98709187547456345</v>
+        <v>0.96606506629285682</v>
       </c>
       <c r="D14">
-        <v>0.98999504127410076</v>
+        <v>0.96024268587929873</v>
       </c>
       <c r="E14">
-        <v>0.98824490272146537</v>
+        <v>0.96782661960738559</v>
       </c>
       <c r="F14">
-        <v>0.97840304624596686</v>
+        <v>0.96096270674069117</v>
       </c>
       <c r="G14">
-        <v>0.98322460391425914</v>
+        <v>0.96575023299161233</v>
       </c>
       <c r="H14">
-        <v>0.97923965602107887</v>
+        <v>0.95897153777108612</v>
       </c>
       <c r="I14">
-        <v>0.97576512146393724</v>
+        <v>0.95549700321394448</v>
       </c>
       <c r="J14">
-        <v>0.97106368290858891</v>
+        <v>0.95553126617960082</v>
       </c>
       <c r="K14">
-        <v>0.97714599404813496</v>
+        <v>0.95345410418653032</v>
       </c>
       <c r="L14">
-        <v>0.97725893605339964</v>
+        <v>0.95183055451209297</v>
       </c>
       <c r="M14">
-        <v>0.97142361813401135</v>
+        <v>0.94599670605911756</v>
       </c>
       <c r="N14">
-        <v>0.96834802717155655</v>
+        <v>0.94175458881341234</v>
       </c>
       <c r="O14">
-        <v>0.97578015836050302</v>
+        <v>0.94201210992081985</v>
       </c>
       <c r="P14">
-        <v>0.97522633984454599</v>
+        <v>0.94087508369479789</v>
       </c>
       <c r="Q14">
-        <v>0.97545388525780685</v>
+        <v>0.93769063180827883</v>
       </c>
       <c r="R14">
-        <v>0.97745234774523482</v>
+        <v>0.94200371920037196</v>
       </c>
       <c r="S14">
-        <v>0.96848220769789395</v>
+        <v>0.93885257806826439</v>
       </c>
       <c r="T14">
-        <v>0.96729216290013365</v>
+        <v>0.93533956893045955</v>
       </c>
       <c r="U14">
-        <v>0.96494030847881029</v>
+        <v>0.93473146077206848</v>
       </c>
       <c r="V14">
-        <v>0.9626165509629071</v>
+        <v>0.93240770325616529</v>
       </c>
       <c r="W14">
-        <v>0.96679545652615984</v>
+        <v>0.93832611916451203</v>
       </c>
       <c r="X14">
-        <v>0.96090164410619883</v>
+        <v>0.93592052518445368</v>
       </c>
       <c r="Y14">
-        <v>0.96145467220495551</v>
+        <v>0.93705521828797167</v>
       </c>
       <c r="Z14">
-        <v>0.96435936909983444</v>
+        <v>0.94518836959363295</v>
       </c>
       <c r="AA14">
-        <v>0.96264451286818109</v>
+        <v>0.95509208156625813</v>
       </c>
       <c r="AB14">
-        <v>0.96784500537368934</v>
+        <v>0.95738809655212487</v>
       </c>
       <c r="AC14">
-        <v>0.96394599126839564</v>
+        <v>0.96105473154653487</v>
       </c>
       <c r="AD14">
-        <v>0.96504669114458352</v>
+        <v>0.95348232096909424</v>
       </c>
       <c r="AE14">
-        <v>0.96409959467284312</v>
+        <v>0.9606253618992473</v>
       </c>
       <c r="AF14">
-        <v>0.9568125636178566</v>
+        <v>0.96030245746691867</v>
       </c>
       <c r="AG14">
-        <v>0.95686821975976499</v>
+        <v>0.96035831660995252</v>
+      </c>
+      <c r="AH14">
+        <v>0.95810120705663882</v>
+      </c>
+      <c r="AI14">
+        <v>0.9578510718533344</v>
+      </c>
+      <c r="AJ14">
+        <v>0.95787885820375962</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B15">
-        <v>0.94925775188124029</v>
+        <v>0.97795215647234501</v>
       </c>
       <c r="C15">
-        <v>0.94562233514397531</v>
+        <v>0.97424215875240938</v>
       </c>
       <c r="D15">
-        <v>0.940407782282764</v>
+        <v>0.97074351719511121</v>
       </c>
       <c r="E15">
-        <v>0.94799171601085086</v>
+        <v>0.96315958346702446</v>
       </c>
       <c r="F15">
-        <v>0.95398657093858086</v>
+        <v>0.96561346394209802</v>
       </c>
       <c r="G15">
-        <v>0.95817800559179878</v>
+        <v>0.96691519105312207</v>
       </c>
       <c r="H15">
-        <v>0.9531806468425168</v>
+        <v>0.96418333960679858</v>
       </c>
       <c r="I15">
-        <v>0.95549700321394448</v>
+        <v>0.96765787416394022</v>
       </c>
       <c r="J15">
-        <v>0.95438071679226832</v>
+        <v>0.96588621066559288</v>
       </c>
       <c r="K15">
-        <v>0.9603883158533415</v>
+        <v>0.95692121001993591</v>
       </c>
       <c r="L15">
-        <v>0.95645389661051239</v>
+        <v>0.95703181437281482</v>
       </c>
       <c r="M15">
-        <v>0.95119766534716399</v>
+        <v>0.95293131844317946</v>
       </c>
       <c r="N15">
-        <v>0.94927012574071401</v>
+        <v>0.94753577106518283</v>
       </c>
       <c r="O15">
-        <v>0.94084769445738248</v>
+        <v>0.9484163949697253</v>
       </c>
       <c r="P15">
         <v>0.94203953305580623</v>
       </c>
       <c r="Q15">
-        <v>0.94059549745824256</v>
+        <v>0.94117647058823528</v>
       </c>
       <c r="R15">
-        <v>0.93677359367735935</v>
+        <v>0.94955834495583447</v>
       </c>
       <c r="S15">
-        <v>0.93246187363834421</v>
+        <v>0.95163398692810452</v>
       </c>
       <c r="T15">
-        <v>0.93127287515250101</v>
+        <v>0.96090164410619883</v>
       </c>
       <c r="U15">
-        <v>0.93763615766694752</v>
+        <v>0.95448339965724582</v>
       </c>
       <c r="V15">
-        <v>0.93647427890899593</v>
+        <v>0.95564527841519742</v>
       </c>
       <c r="W15">
-        <v>0.93542108473985408</v>
+        <v>0.95575632571245961</v>
       </c>
       <c r="X15">
-        <v>0.94114913147040036</v>
+        <v>0.9632254691221751</v>
       </c>
       <c r="Y15">
-        <v>0.94054085456182657</v>
+        <v>0.97016876288959253</v>
       </c>
       <c r="Z15">
-        <v>0.93937897580387486</v>
+        <v>0.96900688413164093</v>
       </c>
       <c r="AA15">
-        <v>0.93940626270841809</v>
+        <v>0.96787311915412777</v>
       </c>
       <c r="AB15">
-        <v>0.94112179394080231</v>
+        <v>0.96087373282597965</v>
       </c>
       <c r="AC15">
-        <v>0.94891144071471945</v>
+        <v>0.96568074710151219</v>
       </c>
       <c r="AD15">
-        <v>0.95001300991644744</v>
+        <v>0.96389025412703455</v>
       </c>
       <c r="AE15">
-        <v>0.94904458598726116</v>
+        <v>0.95657209033005208</v>
       </c>
       <c r="AF15">
+        <v>0.94866947797004508</v>
+      </c>
+      <c r="AG15">
+        <v>0.94872466044266057</v>
+      </c>
+      <c r="AH15">
+        <v>0.95519962859795726</v>
+      </c>
+      <c r="AI15">
+        <v>0.95901140022626397</v>
+      </c>
+      <c r="AJ15">
+        <v>0.95729867718728245</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16">
+        <v>0.9890785582525693</v>
+      </c>
+      <c r="C16">
+        <v>0.98709187547456345</v>
+      </c>
+      <c r="D16">
+        <v>0.98999504127410076</v>
+      </c>
+      <c r="E16">
+        <v>0.98824490272146537</v>
+      </c>
+      <c r="F16">
+        <v>0.97840304624596686</v>
+      </c>
+      <c r="G16">
+        <v>0.98322460391425914</v>
+      </c>
+      <c r="H16">
+        <v>0.97923965602107887</v>
+      </c>
+      <c r="I16">
+        <v>0.97576512146393724</v>
+      </c>
+      <c r="J16">
+        <v>0.97106368290858891</v>
+      </c>
+      <c r="K16">
+        <v>0.97714599404813496</v>
+      </c>
+      <c r="L16">
+        <v>0.97725893605339964</v>
+      </c>
+      <c r="M16">
+        <v>0.97142361813401135</v>
+      </c>
+      <c r="N16">
+        <v>0.96834802717155655</v>
+      </c>
+      <c r="O16">
+        <v>0.97578015836050302</v>
+      </c>
+      <c r="P16">
+        <v>0.97522633984454599</v>
+      </c>
+      <c r="Q16">
+        <v>0.97545388525780685</v>
+      </c>
+      <c r="R16">
+        <v>0.97745234774523482</v>
+      </c>
+      <c r="S16">
+        <v>0.96848220769789395</v>
+      </c>
+      <c r="T16">
+        <v>0.96729216290013365</v>
+      </c>
+      <c r="U16">
+        <v>0.96494030847881029</v>
+      </c>
+      <c r="V16">
+        <v>0.9626165509629071</v>
+      </c>
+      <c r="W16">
+        <v>0.96679545652615984</v>
+      </c>
+      <c r="X16">
+        <v>0.96090164410619883</v>
+      </c>
+      <c r="Y16">
+        <v>0.96145467220495551</v>
+      </c>
+      <c r="Z16">
+        <v>0.96435936909983444</v>
+      </c>
+      <c r="AA16">
+        <v>0.96264451286818109</v>
+      </c>
+      <c r="AB16">
+        <v>0.96784500537368934</v>
+      </c>
+      <c r="AC16">
+        <v>0.96394599126839564</v>
+      </c>
+      <c r="AD16">
+        <v>0.96504669114458352</v>
+      </c>
+      <c r="AE16">
+        <v>0.96409959467284312</v>
+      </c>
+      <c r="AF16">
         <v>0.9568125636178566</v>
       </c>
-      <c r="AG15">
+      <c r="AG16">
         <v>0.95686821975976499</v>
       </c>
+      <c r="AH16">
+        <v>0.94997678737233049</v>
+      </c>
+      <c r="AI16">
+        <v>0.94856844486989811</v>
+      </c>
+      <c r="AJ16">
+        <v>0.94801578092364824</v>
+      </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17">
         <v>0.93754575000731999</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>0.93978155481572345</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>0.94915847504594109</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <v>0.94682495697576052</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <v>0.95631194953928433</v>
       </c>
-      <c r="G16">
+      <c r="G17">
         <v>0.95118825722274003</v>
       </c>
-      <c r="H16">
+      <c r="H17">
         <v>0.95665518139965844</v>
       </c>
-      <c r="I16">
+      <c r="I17">
         <v>0.95781335958537228</v>
       </c>
-      <c r="J16">
+      <c r="J17">
         <v>0.96185928780992924</v>
       </c>
-      <c r="K16">
+      <c r="K17">
         <v>0.9632775707145127</v>
       </c>
-      <c r="L16">
+      <c r="L17">
         <v>0.95760973213511724</v>
       </c>
-      <c r="M16">
+      <c r="M17">
         <v>0.95408708717385649</v>
       </c>
-      <c r="N16">
+      <c r="N17">
         <v>0.95967625379390087</v>
       </c>
-      <c r="O16">
+      <c r="O17">
         <v>0.96937587331159758</v>
       </c>
-      <c r="P16">
+      <c r="P17">
         <v>0.96591074495647877</v>
       </c>
-      <c r="Q16">
+      <c r="Q17">
         <v>0.96848220769789395</v>
       </c>
-      <c r="R16">
+      <c r="R17">
         <v>0.96524872152487218</v>
       </c>
-      <c r="S16">
+      <c r="S17">
         <v>0.96092955700798843</v>
       </c>
-      <c r="T16">
+      <c r="T17">
         <v>0.94812060651832919</v>
       </c>
-      <c r="U16">
+      <c r="U17">
         <v>0.94402649083568135</v>
       </c>
-      <c r="V16">
+      <c r="V17">
         <v>0.94925494524646359</v>
       </c>
-      <c r="W16">
+      <c r="W17">
         <v>0.94355518112889636</v>
       </c>
-      <c r="X16">
+      <c r="X17">
         <v>0.9423110439783885</v>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <v>0.9422836726987539</v>
       </c>
-      <c r="Z16">
+      <c r="Z17">
         <v>0.93879803642489912</v>
       </c>
-      <c r="AA16">
+      <c r="AA17">
         <v>0.93998721896241211</v>
       </c>
-      <c r="AB16">
+      <c r="AB17">
         <v>0.95332152089929423</v>
       </c>
-      <c r="AC16">
+      <c r="AC17">
         <v>0.94775493682597511</v>
       </c>
-      <c r="AD16">
+      <c r="AD17">
         <v>0.95232588395154527</v>
       </c>
-      <c r="AE16">
+      <c r="AE17">
         <v>0.9559930515344528</v>
       </c>
-      <c r="AF16">
+      <c r="AF17">
         <v>0.95332266976879454</v>
       </c>
-      <c r="AG16">
+      <c r="AG17">
         <v>0.95105139167611896</v>
       </c>
+      <c r="AH17">
+        <v>0.95055710306406682</v>
+      </c>
+      <c r="AI17">
+        <v>0.94566762393757431</v>
+      </c>
+      <c r="AJ17">
+        <v>0.94105360872592259</v>
+      </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17">
-        <v>0.97795215647234501</v>
-      </c>
-      <c r="C17">
-        <v>0.97424215875240938</v>
-      </c>
-      <c r="D17">
-        <v>0.97074351719511121</v>
-      </c>
-      <c r="E17">
-        <v>0.96315958346702446</v>
-      </c>
-      <c r="F17">
-        <v>0.96561346394209802</v>
-      </c>
-      <c r="G17">
-        <v>0.96691519105312207</v>
-      </c>
-      <c r="H17">
-        <v>0.96418333960679858</v>
-      </c>
-      <c r="I17">
-        <v>0.96765787416394022</v>
-      </c>
-      <c r="J17">
-        <v>0.96588621066559288</v>
-      </c>
-      <c r="K17">
-        <v>0.95692121001993591</v>
-      </c>
-      <c r="L17">
-        <v>0.95703181437281482</v>
-      </c>
-      <c r="M17">
-        <v>0.95293131844317946</v>
-      </c>
-      <c r="N17">
-        <v>0.94753577106518283</v>
-      </c>
-      <c r="O17">
-        <v>0.9484163949697253</v>
-      </c>
-      <c r="P17">
-        <v>0.94203953305580623</v>
-      </c>
-      <c r="Q17">
-        <v>0.94117647058823528</v>
-      </c>
-      <c r="R17">
-        <v>0.94955834495583447</v>
-      </c>
-      <c r="S17">
-        <v>0.95163398692810452</v>
-      </c>
-      <c r="T17">
-        <v>0.96090164410619883</v>
-      </c>
-      <c r="U17">
-        <v>0.95448339965724582</v>
-      </c>
-      <c r="V17">
-        <v>0.95564527841519742</v>
-      </c>
-      <c r="W17">
-        <v>0.95575632571245961</v>
-      </c>
-      <c r="X17">
-        <v>0.9632254691221751</v>
-      </c>
-      <c r="Y17">
-        <v>0.97016876288959253</v>
-      </c>
-      <c r="Z17">
-        <v>0.96900688413164093</v>
-      </c>
-      <c r="AA17">
-        <v>0.96787311915412777</v>
-      </c>
-      <c r="AB17">
-        <v>0.96087373282597965</v>
-      </c>
-      <c r="AC17">
-        <v>0.96568074710151219</v>
-      </c>
-      <c r="AD17">
-        <v>0.96389025412703455</v>
-      </c>
-      <c r="AE17">
-        <v>0.95657209033005208</v>
-      </c>
-      <c r="AF17">
-        <v>0.94866947797004508</v>
-      </c>
-      <c r="AG17">
-        <v>0.94872466044266057</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B18">
         <v>0.92583374813339969</v>
@@ -2325,10 +2488,19 @@
       <c r="AG18">
         <v>0.94639792920920218</v>
       </c>
+      <c r="AH18">
+        <v>0.94069173630454961</v>
+      </c>
+      <c r="AI18">
+        <v>0.93870565369999703</v>
+      </c>
+      <c r="AJ18">
+        <v>0.93873288466001392</v>
+      </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B19">
         <v>0.97209615553538486</v>
@@ -2426,10 +2598,19 @@
       <c r="AG19">
         <v>0.94058110112555615</v>
       </c>
+      <c r="AH19">
+        <v>0.93779015784586817</v>
+      </c>
+      <c r="AI19">
+        <v>0.93638499695413802</v>
+      </c>
+      <c r="AJ19">
+        <v>0.9375725226270597</v>
+      </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B20">
         <v>0.9615553538488566</v>
@@ -2527,10 +2708,19 @@
       <c r="AG20">
         <v>0.91964052002443064</v>
       </c>
+      <c r="AH20">
+        <v>0.9151578458681523</v>
+      </c>
+      <c r="AI20">
+        <v>0.9154990862414063</v>
+      </c>
+      <c r="AJ20">
+        <v>0.92480854026456261</v>
+      </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B21">
         <v>0.86141773782683806</v>
@@ -2627,9 +2817,19 @@
       </c>
       <c r="AG21">
         <v>0.90044498734839884</v>
+      </c>
+      <c r="AH21">
+        <v>0.89774837511606309</v>
+      </c>
+      <c r="AI21">
+        <v>0.89983465320685752</v>
+      </c>
+      <c r="AJ21">
+        <v>0.90508238570433985</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/BK/ELO17-18_score.xlsx
+++ b/Data/BK/ELO17-18_score.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Team</t>
   </si>
@@ -125,27 +125,18 @@
     <t>GW32</t>
   </si>
   <si>
-    <t>GW33</t>
-  </si>
-  <si>
-    <t>GW34</t>
-  </si>
-  <si>
-    <t>GW35</t>
-  </si>
-  <si>
     <t>MCI</t>
   </si>
   <si>
+    <t>TOT</t>
+  </si>
+  <si>
+    <t>MUN</t>
+  </si>
+  <si>
     <t>LIV</t>
   </si>
   <si>
-    <t>TOT</t>
-  </si>
-  <si>
-    <t>MUN</t>
-  </si>
-  <si>
     <t>CHE</t>
   </si>
   <si>
@@ -155,40 +146,40 @@
     <t>LEI</t>
   </si>
   <si>
+    <t>BOU</t>
+  </si>
+  <si>
+    <t>EVE</t>
+  </si>
+  <si>
     <t>BUR</t>
   </si>
   <si>
-    <t>EVE</t>
+    <t>SOU</t>
+  </si>
+  <si>
+    <t>CRY</t>
+  </si>
+  <si>
+    <t>WHU</t>
+  </si>
+  <si>
+    <t>SWA</t>
+  </si>
+  <si>
+    <t>WAT</t>
+  </si>
+  <si>
+    <t>STK</t>
   </si>
   <si>
     <t>NEW</t>
   </si>
   <si>
-    <t>BOU</t>
-  </si>
-  <si>
-    <t>CRY</t>
-  </si>
-  <si>
-    <t>SWA</t>
-  </si>
-  <si>
-    <t>WHU</t>
-  </si>
-  <si>
-    <t>SOU</t>
-  </si>
-  <si>
-    <t>WAT</t>
+    <t>WBA</t>
   </si>
   <si>
     <t>BHA</t>
-  </si>
-  <si>
-    <t>STK</t>
-  </si>
-  <si>
-    <t>WBA</t>
   </si>
   <si>
     <t>HUD</t>
@@ -227,9 +218,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,16 +500,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ21"/>
+  <dimension ref="A1:AG21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -618,19 +608,10 @@
       <c r="AG1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>33</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>36</v>
       </c>
       <c r="B2">
         <v>1.0915585746493719</v>
@@ -728,239 +709,212 @@
       <c r="AG2">
         <v>1.1569671058371869</v>
       </c>
-      <c r="AH2">
-        <v>1.1484447539461466</v>
-      </c>
-      <c r="AI2">
-        <v>1.1359614770980186</v>
-      </c>
-      <c r="AJ2">
-        <v>1.1435367834764447</v>
-      </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B3">
+        <v>1.1038561766169881</v>
+      </c>
+      <c r="C3">
+        <v>1.1062437941709014</v>
+      </c>
+      <c r="D3">
+        <v>1.100253770090132</v>
+      </c>
+      <c r="E3">
+        <v>1.0961701134673161</v>
+      </c>
+      <c r="F3">
+        <v>1.1062988692846554</v>
+      </c>
+      <c r="G3">
+        <v>1.1020503261882573</v>
+      </c>
+      <c r="H3">
+        <v>1.1072183455424618</v>
+      </c>
+      <c r="I3">
+        <v>1.1089556128210325</v>
+      </c>
+      <c r="J3">
+        <v>1.1097048840821493</v>
+      </c>
+      <c r="K3">
+        <v>1.1169859293288262</v>
+      </c>
+      <c r="L3">
+        <v>1.1200046233420984</v>
+      </c>
+      <c r="M3">
+        <v>1.1205177843913432</v>
+      </c>
+      <c r="N3">
+        <v>1.1169244110420582</v>
+      </c>
+      <c r="O3">
+        <v>1.1143455985095483</v>
+      </c>
+      <c r="P3">
+        <v>1.1073913423190009</v>
+      </c>
+      <c r="Q3">
+        <v>1.1055918663761801</v>
+      </c>
+      <c r="R3">
+        <v>1.1082054858205486</v>
+      </c>
+      <c r="S3">
+        <v>1.1090777051561365</v>
+      </c>
+      <c r="T3">
+        <v>1.1043978388427351</v>
+      </c>
+      <c r="U3">
+        <v>1.1090132744648096</v>
+      </c>
+      <c r="V3">
+        <v>1.110756092601737</v>
+      </c>
+      <c r="W3">
+        <v>1.1108851639891932</v>
+      </c>
+      <c r="X3">
+        <v>1.1090454888746877</v>
+      </c>
+      <c r="Y3">
+        <v>1.1119179713596887</v>
+      </c>
+      <c r="Z3">
+        <v>1.1084323350858338</v>
+      </c>
+      <c r="AA3">
+        <v>1.1142740951606345</v>
+      </c>
+      <c r="AB3">
+        <v>1.1148226682545677</v>
+      </c>
+      <c r="AC3">
+        <v>1.1189175123601354</v>
+      </c>
+      <c r="AD3">
+        <v>1.1205874700049148</v>
+      </c>
+      <c r="AE3">
+        <v>1.1134916039374638</v>
+      </c>
+      <c r="AF3">
+        <v>1.1179293296495565</v>
+      </c>
+      <c r="AG3">
+        <v>1.1179943576767588</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4">
         <v>1.0745761719321874</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>1.0758717364639916</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>1.0798354869760523</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>1.0862526616690487</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>1.0760689474755107</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>1.0729263746505127</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>1.0736311781567596</v>
       </c>
-      <c r="I3">
+      <c r="I4">
         <v>1.0713148217853317</v>
       </c>
-      <c r="J3">
+      <c r="J4">
         <v>1.0717367543001783</v>
       </c>
-      <c r="K3">
+      <c r="K4">
         <v>1.0707578515500853</v>
       </c>
-      <c r="L3">
+      <c r="L4">
         <v>1.073193284595602</v>
       </c>
-      <c r="M3">
+      <c r="M4">
         <v>1.0777543413562947</v>
       </c>
-      <c r="N3">
+      <c r="N4">
         <v>1.080502962855904</v>
       </c>
-      <c r="O3">
+      <c r="O4">
         <v>1.0823241732650211</v>
       </c>
-      <c r="P3">
+      <c r="P4">
         <v>1.0864312538208496</v>
       </c>
-      <c r="Q3">
+      <c r="Q4">
         <v>1.0939724037763254</v>
       </c>
-      <c r="R3">
+      <c r="R4">
         <v>1.0907717340771734</v>
       </c>
-      <c r="S3">
+      <c r="S4">
         <v>1.0864197530864197</v>
       </c>
-      <c r="T3">
+      <c r="T4">
         <v>1.0910358450008715</v>
       </c>
-      <c r="U3">
+      <c r="U4">
         <v>1.0910041537165598</v>
       </c>
-      <c r="V3">
+      <c r="V4">
         <v>1.093327911232463</v>
       </c>
-      <c r="W3">
+      <c r="W4">
         <v>1.0951979780960404</v>
       </c>
-      <c r="X3">
+      <c r="X4">
         <v>1.0980073200488003</v>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <v>1.1032038806750517</v>
       </c>
-      <c r="Z3">
+      <c r="Z4">
         <v>1.0950707293693904</v>
       </c>
-      <c r="AA3">
+      <c r="AA4">
         <v>1.0974263637948063</v>
       </c>
-      <c r="AB3">
+      <c r="AB4">
         <v>1.0968135475063179</v>
       </c>
-      <c r="AC3">
+      <c r="AC4">
         <v>1.1061959695839478</v>
       </c>
-      <c r="AD3">
+      <c r="AD4">
         <v>1.1084448813206511</v>
       </c>
-      <c r="AE3">
+      <c r="AE4">
         <v>1.1094383323682686</v>
       </c>
-      <c r="AF3">
+      <c r="AF4">
         <v>1.1062963501526828</v>
       </c>
-      <c r="AG3">
+      <c r="AG4">
         <v>1.1086874327429252</v>
       </c>
-      <c r="AH3">
-        <v>1.120589600742804</v>
-      </c>
-      <c r="AI3">
-        <v>1.122617700809329</v>
-      </c>
-      <c r="AJ3">
-        <v>1.1243908099326991</v>
-      </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4">
-        <v>1.1038561766169881</v>
-      </c>
-      <c r="C4">
-        <v>1.1062437941709014</v>
-      </c>
-      <c r="D4">
-        <v>1.100253770090132</v>
-      </c>
-      <c r="E4">
-        <v>1.0961701134673161</v>
-      </c>
-      <c r="F4">
-        <v>1.1062988692846554</v>
-      </c>
-      <c r="G4">
-        <v>1.1020503261882573</v>
-      </c>
-      <c r="H4">
-        <v>1.1072183455424618</v>
-      </c>
-      <c r="I4">
-        <v>1.1089556128210325</v>
-      </c>
-      <c r="J4">
-        <v>1.1097048840821493</v>
-      </c>
-      <c r="K4">
-        <v>1.1169859293288262</v>
-      </c>
-      <c r="L4">
-        <v>1.1200046233420984</v>
-      </c>
-      <c r="M4">
-        <v>1.1205177843913432</v>
-      </c>
-      <c r="N4">
-        <v>1.1169244110420582</v>
-      </c>
-      <c r="O4">
-        <v>1.1143455985095483</v>
-      </c>
-      <c r="P4">
-        <v>1.1073913423190009</v>
-      </c>
-      <c r="Q4">
-        <v>1.1055918663761801</v>
-      </c>
-      <c r="R4">
-        <v>1.1082054858205486</v>
-      </c>
-      <c r="S4">
-        <v>1.1090777051561365</v>
-      </c>
-      <c r="T4">
-        <v>1.1043978388427351</v>
-      </c>
-      <c r="U4">
-        <v>1.1090132744648096</v>
-      </c>
-      <c r="V4">
-        <v>1.110756092601737</v>
-      </c>
-      <c r="W4">
-        <v>1.1108851639891932</v>
-      </c>
-      <c r="X4">
-        <v>1.1090454888746877</v>
-      </c>
-      <c r="Y4">
-        <v>1.1119179713596887</v>
-      </c>
-      <c r="Z4">
-        <v>1.1084323350858338</v>
-      </c>
-      <c r="AA4">
-        <v>1.1142740951606345</v>
-      </c>
-      <c r="AB4">
-        <v>1.1148226682545677</v>
-      </c>
-      <c r="AC4">
-        <v>1.1189175123601354</v>
-      </c>
-      <c r="AD4">
-        <v>1.1205874700049148</v>
-      </c>
-      <c r="AE4">
-        <v>1.1134916039374638</v>
-      </c>
-      <c r="AF4">
-        <v>1.1179293296495565</v>
-      </c>
-      <c r="AG4">
-        <v>1.1179943576767588</v>
-      </c>
-      <c r="AH4">
-        <v>1.1234911792014857</v>
-      </c>
-      <c r="AI4">
-        <v>1.1249383575551881</v>
-      </c>
-      <c r="AJ4">
-        <v>1.1139475516361106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>1.0862881738061076</v>
@@ -1058,19 +1012,10 @@
       <c r="AG5">
         <v>1.0970537765756332</v>
       </c>
-      <c r="AH5">
-        <v>1.0985376044568245</v>
-      </c>
-      <c r="AI5">
-        <v>1.105212775215386</v>
-      </c>
-      <c r="AJ5">
-        <v>1.0988628452077049</v>
-      </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>1.1167393786783004</v>
@@ -1168,19 +1113,10 @@
       <c r="AG6">
         <v>1.0778582438996014</v>
       </c>
-      <c r="AH6">
-        <v>1.0712627669452182</v>
-      </c>
-      <c r="AI6">
-        <v>1.0675021030951759</v>
-      </c>
-      <c r="AJ6">
-        <v>1.0739150614991877</v>
-      </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B7">
         <v>1.0804321728691475</v>
@@ -1278,19 +1214,10 @@
       <c r="AG7">
         <v>1.0574993456068404</v>
       </c>
-      <c r="AH7">
-        <v>1.0660399257195914</v>
-      </c>
-      <c r="AI7">
-        <v>1.0680822672816406</v>
-      </c>
-      <c r="AJ7">
-        <v>1.0617312601531679</v>
-      </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B8">
         <v>1.0037185605949697</v>
@@ -1388,19 +1315,10 @@
       <c r="AG8">
         <v>1.004566210045662</v>
       </c>
-      <c r="AH8">
-        <v>1.00974930362117</v>
-      </c>
-      <c r="AI8">
-        <v>1.0031038783975865</v>
-      </c>
-      <c r="AJ8">
-        <v>0.99675098630772807</v>
-      </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B9">
         <v>0.95218575234972036</v>
@@ -1498,19 +1416,10 @@
       <c r="AG9">
         <v>0.98478899456126567</v>
       </c>
-      <c r="AH9">
-        <v>0.98827762302692668</v>
-      </c>
-      <c r="AI9">
-        <v>0.99324108722768534</v>
-      </c>
-      <c r="AJ9">
-        <v>0.99326990020886519</v>
-      </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B10">
         <v>1.0242145638743301</v>
@@ -1608,239 +1517,212 @@
       <c r="AG10">
         <v>0.98478899456126567</v>
       </c>
-      <c r="AH10">
-        <v>0.98189415041782724</v>
-      </c>
-      <c r="AI10">
-        <v>0.98453862443071383</v>
-      </c>
-      <c r="AJ10">
-        <v>0.9851473659781852</v>
-      </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B11">
-        <v>0.94925775188124029</v>
+        <v>0.96682575469212073</v>
       </c>
       <c r="C11">
-        <v>0.94562233514397531</v>
+        <v>0.96314467612873089</v>
       </c>
       <c r="D11">
-        <v>0.940407782282764</v>
+        <v>0.95382551118630221</v>
       </c>
       <c r="E11">
-        <v>0.94799171601085086</v>
+        <v>0.95149199311612165</v>
       </c>
       <c r="F11">
-        <v>0.95398657093858086</v>
+        <v>0.94875446908699823</v>
       </c>
       <c r="G11">
-        <v>0.95817800559179878</v>
+        <v>0.95235321528424977</v>
       </c>
       <c r="H11">
-        <v>0.9531806468425168</v>
+        <v>0.94912702319251818</v>
       </c>
       <c r="I11">
+        <v>0.94970611228537516</v>
+      </c>
+      <c r="J11">
+        <v>0.94575159638727491</v>
+      </c>
+      <c r="K11">
+        <v>0.95460980613099888</v>
+      </c>
+      <c r="L11">
+        <v>0.95298639003669783</v>
+      </c>
+      <c r="M11">
+        <v>0.958132277731226</v>
+      </c>
+      <c r="N11">
+        <v>0.96314496314496312</v>
+      </c>
+      <c r="O11">
+        <v>0.96413600372612951</v>
+      </c>
+      <c r="P11">
+        <v>0.95892404879042825</v>
+      </c>
+      <c r="Q11">
+        <v>0.9580246913580247</v>
+      </c>
+      <c r="R11">
+        <v>0.95885634588563462</v>
+      </c>
+      <c r="S11">
+        <v>0.95744371822803198</v>
+      </c>
+      <c r="T11">
+        <v>0.95276825655028174</v>
+      </c>
+      <c r="U11">
+        <v>0.95157870276236678</v>
+      </c>
+      <c r="V11">
+        <v>0.95041682400441518</v>
+      </c>
+      <c r="W11">
+        <v>0.95517531882752804</v>
+      </c>
+      <c r="X11">
+        <v>0.95567303782025215</v>
+      </c>
+      <c r="Y11">
+        <v>0.9626165509629071</v>
+      </c>
+      <c r="Z11">
+        <v>0.9637784297208587</v>
+      </c>
+      <c r="AA11">
+        <v>0.97833033172602102</v>
+      </c>
+      <c r="AB11">
+        <v>0.98178755046910859</v>
+      </c>
+      <c r="AC11">
+        <v>0.97030676265648952</v>
+      </c>
+      <c r="AD11">
+        <v>0.96909422070600482</v>
+      </c>
+      <c r="AE11">
+        <v>0.97046902142443547</v>
+      </c>
+      <c r="AF11">
+        <v>0.9678638941398866</v>
+      </c>
+      <c r="AG11">
+        <v>0.97024692435215076</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12">
+        <v>0.96448335431733667</v>
+      </c>
+      <c r="C12">
+        <v>0.96606506629285682</v>
+      </c>
+      <c r="D12">
+        <v>0.96024268587929873</v>
+      </c>
+      <c r="E12">
+        <v>0.96782661960738559</v>
+      </c>
+      <c r="F12">
+        <v>0.96096270674069117</v>
+      </c>
+      <c r="G12">
+        <v>0.96575023299161233</v>
+      </c>
+      <c r="H12">
+        <v>0.95897153777108612</v>
+      </c>
+      <c r="I12">
         <v>0.95549700321394448</v>
       </c>
-      <c r="J11">
-        <v>0.95438071679226832</v>
-      </c>
-      <c r="K11">
-        <v>0.9603883158533415</v>
-      </c>
-      <c r="L11">
-        <v>0.95645389661051239</v>
-      </c>
-      <c r="M11">
-        <v>0.95119766534716399</v>
-      </c>
-      <c r="N11">
-        <v>0.94927012574071401</v>
-      </c>
-      <c r="O11">
-        <v>0.94084769445738248</v>
-      </c>
-      <c r="P11">
-        <v>0.94203953305580623</v>
-      </c>
-      <c r="Q11">
-        <v>0.94059549745824256</v>
-      </c>
-      <c r="R11">
-        <v>0.93677359367735935</v>
-      </c>
-      <c r="S11">
-        <v>0.93246187363834421</v>
-      </c>
-      <c r="T11">
-        <v>0.93127287515250101</v>
-      </c>
-      <c r="U11">
-        <v>0.93763615766694752</v>
-      </c>
-      <c r="V11">
-        <v>0.93647427890899593</v>
-      </c>
-      <c r="W11">
-        <v>0.93542108473985408</v>
-      </c>
-      <c r="X11">
-        <v>0.94114913147040036</v>
-      </c>
-      <c r="Y11">
-        <v>0.94054085456182657</v>
-      </c>
-      <c r="Z11">
-        <v>0.93937897580387486</v>
-      </c>
-      <c r="AA11">
-        <v>0.93940626270841809</v>
-      </c>
-      <c r="AB11">
-        <v>0.94112179394080231</v>
-      </c>
-      <c r="AC11">
-        <v>0.94891144071471945</v>
-      </c>
-      <c r="AD11">
-        <v>0.95001300991644744</v>
-      </c>
-      <c r="AE11">
-        <v>0.94904458598726116</v>
-      </c>
-      <c r="AF11">
-        <v>0.9568125636178566</v>
-      </c>
-      <c r="AG11">
-        <v>0.95686821975976499</v>
-      </c>
-      <c r="AH11">
-        <v>0.95926183844011137</v>
-      </c>
-      <c r="AI11">
-        <v>0.96597337046384124</v>
-      </c>
-      <c r="AJ11">
-        <v>0.9723833836156881</v>
+      <c r="J12">
+        <v>0.95553126617960082</v>
+      </c>
+      <c r="K12">
+        <v>0.95345410418653032</v>
+      </c>
+      <c r="L12">
+        <v>0.95183055451209297</v>
+      </c>
+      <c r="M12">
+        <v>0.94599670605911756</v>
+      </c>
+      <c r="N12">
+        <v>0.94175458881341234</v>
+      </c>
+      <c r="O12">
+        <v>0.94201210992081985</v>
+      </c>
+      <c r="P12">
+        <v>0.94087508369479789</v>
+      </c>
+      <c r="Q12">
+        <v>0.93769063180827883</v>
+      </c>
+      <c r="R12">
+        <v>0.94200371920037196</v>
+      </c>
+      <c r="S12">
+        <v>0.93885257806826439</v>
+      </c>
+      <c r="T12">
+        <v>0.93533956893045955</v>
+      </c>
+      <c r="U12">
+        <v>0.93473146077206848</v>
+      </c>
+      <c r="V12">
+        <v>0.93240770325616529</v>
+      </c>
+      <c r="W12">
+        <v>0.93832611916451203</v>
+      </c>
+      <c r="X12">
+        <v>0.93592052518445368</v>
+      </c>
+      <c r="Y12">
+        <v>0.93705521828797167</v>
+      </c>
+      <c r="Z12">
+        <v>0.94518836959363295</v>
+      </c>
+      <c r="AA12">
+        <v>0.95509208156625813</v>
+      </c>
+      <c r="AB12">
+        <v>0.95738809655212487</v>
+      </c>
+      <c r="AC12">
+        <v>0.96105473154653487</v>
+      </c>
+      <c r="AD12">
+        <v>0.95348232096909424</v>
+      </c>
+      <c r="AE12">
+        <v>0.9606253618992473</v>
+      </c>
+      <c r="AF12">
+        <v>0.96030245746691867</v>
+      </c>
+      <c r="AG12">
+        <v>0.96035831660995252</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12">
-        <v>0.96682575469212073</v>
-      </c>
-      <c r="C12">
-        <v>0.96314467612873089</v>
-      </c>
-      <c r="D12">
-        <v>0.95382551118630221</v>
-      </c>
-      <c r="E12">
-        <v>0.95149199311612165</v>
-      </c>
-      <c r="F12">
-        <v>0.94875446908699823</v>
-      </c>
-      <c r="G12">
-        <v>0.95235321528424977</v>
-      </c>
-      <c r="H12">
-        <v>0.94912702319251818</v>
-      </c>
-      <c r="I12">
-        <v>0.94970611228537516</v>
-      </c>
-      <c r="J12">
-        <v>0.94575159638727491</v>
-      </c>
-      <c r="K12">
-        <v>0.95460980613099888</v>
-      </c>
-      <c r="L12">
-        <v>0.95298639003669783</v>
-      </c>
-      <c r="M12">
-        <v>0.958132277731226</v>
-      </c>
-      <c r="N12">
-        <v>0.96314496314496312</v>
-      </c>
-      <c r="O12">
-        <v>0.96413600372612951</v>
-      </c>
-      <c r="P12">
-        <v>0.95892404879042825</v>
-      </c>
-      <c r="Q12">
-        <v>0.9580246913580247</v>
-      </c>
-      <c r="R12">
-        <v>0.95885634588563462</v>
-      </c>
-      <c r="S12">
-        <v>0.95744371822803198</v>
-      </c>
-      <c r="T12">
-        <v>0.95276825655028174</v>
-      </c>
-      <c r="U12">
-        <v>0.95157870276236678</v>
-      </c>
-      <c r="V12">
-        <v>0.95041682400441518</v>
-      </c>
-      <c r="W12">
-        <v>0.95517531882752804</v>
-      </c>
-      <c r="X12">
-        <v>0.95567303782025215</v>
-      </c>
-      <c r="Y12">
-        <v>0.9626165509629071</v>
-      </c>
-      <c r="Z12">
-        <v>0.9637784297208587</v>
-      </c>
-      <c r="AA12">
-        <v>0.97833033172602102</v>
-      </c>
-      <c r="AB12">
-        <v>0.98178755046910859</v>
-      </c>
-      <c r="AC12">
-        <v>0.97030676265648952</v>
-      </c>
-      <c r="AD12">
-        <v>0.96909422070600482</v>
-      </c>
-      <c r="AE12">
-        <v>0.97046902142443547</v>
-      </c>
-      <c r="AF12">
-        <v>0.9678638941398866</v>
-      </c>
-      <c r="AG12">
-        <v>0.97024692435215076</v>
-      </c>
-      <c r="AH12">
-        <v>0.97086815227483747</v>
-      </c>
-      <c r="AI12">
-        <v>0.96945435558262982</v>
-      </c>
-      <c r="AJ12">
-        <v>0.96426084938500822</v>
-      </c>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B13">
         <v>0.96038415366146457</v>
@@ -1938,459 +1820,414 @@
       <c r="AG13">
         <v>0.9586132681848587</v>
       </c>
-      <c r="AH13">
-        <v>0.95636025998142993</v>
-      </c>
-      <c r="AI13">
-        <v>0.9578510718533344</v>
-      </c>
-      <c r="AJ13">
-        <v>0.9613599443026225</v>
-      </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B14">
-        <v>0.96448335431733667</v>
+        <v>0.9890785582525693</v>
       </c>
       <c r="C14">
-        <v>0.96606506629285682</v>
+        <v>0.98709187547456345</v>
       </c>
       <c r="D14">
-        <v>0.96024268587929873</v>
+        <v>0.98999504127410076</v>
       </c>
       <c r="E14">
-        <v>0.96782661960738559</v>
+        <v>0.98824490272146537</v>
       </c>
       <c r="F14">
-        <v>0.96096270674069117</v>
+        <v>0.97840304624596686</v>
       </c>
       <c r="G14">
-        <v>0.96575023299161233</v>
+        <v>0.98322460391425914</v>
       </c>
       <c r="H14">
-        <v>0.95897153777108612</v>
+        <v>0.97923965602107887</v>
       </c>
       <c r="I14">
+        <v>0.97576512146393724</v>
+      </c>
+      <c r="J14">
+        <v>0.97106368290858891</v>
+      </c>
+      <c r="K14">
+        <v>0.97714599404813496</v>
+      </c>
+      <c r="L14">
+        <v>0.97725893605339964</v>
+      </c>
+      <c r="M14">
+        <v>0.97142361813401135</v>
+      </c>
+      <c r="N14">
+        <v>0.96834802717155655</v>
+      </c>
+      <c r="O14">
+        <v>0.97578015836050302</v>
+      </c>
+      <c r="P14">
+        <v>0.97522633984454599</v>
+      </c>
+      <c r="Q14">
+        <v>0.97545388525780685</v>
+      </c>
+      <c r="R14">
+        <v>0.97745234774523482</v>
+      </c>
+      <c r="S14">
+        <v>0.96848220769789395</v>
+      </c>
+      <c r="T14">
+        <v>0.96729216290013365</v>
+      </c>
+      <c r="U14">
+        <v>0.96494030847881029</v>
+      </c>
+      <c r="V14">
+        <v>0.9626165509629071</v>
+      </c>
+      <c r="W14">
+        <v>0.96679545652615984</v>
+      </c>
+      <c r="X14">
+        <v>0.96090164410619883</v>
+      </c>
+      <c r="Y14">
+        <v>0.96145467220495551</v>
+      </c>
+      <c r="Z14">
+        <v>0.96435936909983444</v>
+      </c>
+      <c r="AA14">
+        <v>0.96264451286818109</v>
+      </c>
+      <c r="AB14">
+        <v>0.96784500537368934</v>
+      </c>
+      <c r="AC14">
+        <v>0.96394599126839564</v>
+      </c>
+      <c r="AD14">
+        <v>0.96504669114458352</v>
+      </c>
+      <c r="AE14">
+        <v>0.96409959467284312</v>
+      </c>
+      <c r="AF14">
+        <v>0.9568125636178566</v>
+      </c>
+      <c r="AG14">
+        <v>0.95686821975976499</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15">
+        <v>0.94925775188124029</v>
+      </c>
+      <c r="C15">
+        <v>0.94562233514397531</v>
+      </c>
+      <c r="D15">
+        <v>0.940407782282764</v>
+      </c>
+      <c r="E15">
+        <v>0.94799171601085086</v>
+      </c>
+      <c r="F15">
+        <v>0.95398657093858086</v>
+      </c>
+      <c r="G15">
+        <v>0.95817800559179878</v>
+      </c>
+      <c r="H15">
+        <v>0.9531806468425168</v>
+      </c>
+      <c r="I15">
         <v>0.95549700321394448</v>
       </c>
-      <c r="J14">
-        <v>0.95553126617960082</v>
-      </c>
-      <c r="K14">
-        <v>0.95345410418653032</v>
-      </c>
-      <c r="L14">
-        <v>0.95183055451209297</v>
-      </c>
-      <c r="M14">
-        <v>0.94599670605911756</v>
-      </c>
-      <c r="N14">
-        <v>0.94175458881341234</v>
-      </c>
-      <c r="O14">
-        <v>0.94201210992081985</v>
-      </c>
-      <c r="P14">
-        <v>0.94087508369479789</v>
-      </c>
-      <c r="Q14">
-        <v>0.93769063180827883</v>
-      </c>
-      <c r="R14">
-        <v>0.94200371920037196</v>
-      </c>
-      <c r="S14">
-        <v>0.93885257806826439</v>
-      </c>
-      <c r="T14">
-        <v>0.93533956893045955</v>
-      </c>
-      <c r="U14">
-        <v>0.93473146077206848</v>
-      </c>
-      <c r="V14">
-        <v>0.93240770325616529</v>
-      </c>
-      <c r="W14">
-        <v>0.93832611916451203</v>
-      </c>
-      <c r="X14">
-        <v>0.93592052518445368</v>
-      </c>
-      <c r="Y14">
-        <v>0.93705521828797167</v>
-      </c>
-      <c r="Z14">
-        <v>0.94518836959363295</v>
-      </c>
-      <c r="AA14">
-        <v>0.95509208156625813</v>
-      </c>
-      <c r="AB14">
-        <v>0.95738809655212487</v>
-      </c>
-      <c r="AC14">
-        <v>0.96105473154653487</v>
-      </c>
-      <c r="AD14">
-        <v>0.95348232096909424</v>
-      </c>
-      <c r="AE14">
-        <v>0.9606253618992473</v>
-      </c>
-      <c r="AF14">
-        <v>0.96030245746691867</v>
-      </c>
-      <c r="AG14">
-        <v>0.96035831660995252</v>
-      </c>
-      <c r="AH14">
-        <v>0.95810120705663882</v>
-      </c>
-      <c r="AI14">
-        <v>0.9578510718533344</v>
-      </c>
-      <c r="AJ14">
-        <v>0.95787885820375962</v>
-      </c>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15">
-        <v>0.97795215647234501</v>
-      </c>
-      <c r="C15">
-        <v>0.97424215875240938</v>
-      </c>
-      <c r="D15">
-        <v>0.97074351719511121</v>
-      </c>
-      <c r="E15">
-        <v>0.96315958346702446</v>
-      </c>
-      <c r="F15">
-        <v>0.96561346394209802</v>
-      </c>
-      <c r="G15">
-        <v>0.96691519105312207</v>
-      </c>
-      <c r="H15">
-        <v>0.96418333960679858</v>
-      </c>
-      <c r="I15">
-        <v>0.96765787416394022</v>
-      </c>
       <c r="J15">
-        <v>0.96588621066559288</v>
+        <v>0.95438071679226832</v>
       </c>
       <c r="K15">
-        <v>0.95692121001993591</v>
+        <v>0.9603883158533415</v>
       </c>
       <c r="L15">
-        <v>0.95703181437281482</v>
+        <v>0.95645389661051239</v>
       </c>
       <c r="M15">
-        <v>0.95293131844317946</v>
+        <v>0.95119766534716399</v>
       </c>
       <c r="N15">
-        <v>0.94753577106518283</v>
+        <v>0.94927012574071401</v>
       </c>
       <c r="O15">
-        <v>0.9484163949697253</v>
+        <v>0.94084769445738248</v>
       </c>
       <c r="P15">
         <v>0.94203953305580623</v>
       </c>
       <c r="Q15">
+        <v>0.94059549745824256</v>
+      </c>
+      <c r="R15">
+        <v>0.93677359367735935</v>
+      </c>
+      <c r="S15">
+        <v>0.93246187363834421</v>
+      </c>
+      <c r="T15">
+        <v>0.93127287515250101</v>
+      </c>
+      <c r="U15">
+        <v>0.93763615766694752</v>
+      </c>
+      <c r="V15">
+        <v>0.93647427890899593</v>
+      </c>
+      <c r="W15">
+        <v>0.93542108473985408</v>
+      </c>
+      <c r="X15">
+        <v>0.94114913147040036</v>
+      </c>
+      <c r="Y15">
+        <v>0.94054085456182657</v>
+      </c>
+      <c r="Z15">
+        <v>0.93937897580387486</v>
+      </c>
+      <c r="AA15">
+        <v>0.93940626270841809</v>
+      </c>
+      <c r="AB15">
+        <v>0.94112179394080231</v>
+      </c>
+      <c r="AC15">
+        <v>0.94891144071471945</v>
+      </c>
+      <c r="AD15">
+        <v>0.95001300991644744</v>
+      </c>
+      <c r="AE15">
+        <v>0.94904458598726116</v>
+      </c>
+      <c r="AF15">
+        <v>0.9568125636178566</v>
+      </c>
+      <c r="AG15">
+        <v>0.95686821975976499</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16">
+        <v>0.93754575000731999</v>
+      </c>
+      <c r="C16">
+        <v>0.93978155481572345</v>
+      </c>
+      <c r="D16">
+        <v>0.94915847504594109</v>
+      </c>
+      <c r="E16">
+        <v>0.94682495697576052</v>
+      </c>
+      <c r="F16">
+        <v>0.95631194953928433</v>
+      </c>
+      <c r="G16">
+        <v>0.95118825722274003</v>
+      </c>
+      <c r="H16">
+        <v>0.95665518139965844</v>
+      </c>
+      <c r="I16">
+        <v>0.95781335958537228</v>
+      </c>
+      <c r="J16">
+        <v>0.96185928780992924</v>
+      </c>
+      <c r="K16">
+        <v>0.9632775707145127</v>
+      </c>
+      <c r="L16">
+        <v>0.95760973213511724</v>
+      </c>
+      <c r="M16">
+        <v>0.95408708717385649</v>
+      </c>
+      <c r="N16">
+        <v>0.95967625379390087</v>
+      </c>
+      <c r="O16">
+        <v>0.96937587331159758</v>
+      </c>
+      <c r="P16">
+        <v>0.96591074495647877</v>
+      </c>
+      <c r="Q16">
+        <v>0.96848220769789395</v>
+      </c>
+      <c r="R16">
+        <v>0.96524872152487218</v>
+      </c>
+      <c r="S16">
+        <v>0.96092955700798843</v>
+      </c>
+      <c r="T16">
+        <v>0.94812060651832919</v>
+      </c>
+      <c r="U16">
+        <v>0.94402649083568135</v>
+      </c>
+      <c r="V16">
+        <v>0.94925494524646359</v>
+      </c>
+      <c r="W16">
+        <v>0.94355518112889636</v>
+      </c>
+      <c r="X16">
+        <v>0.9423110439783885</v>
+      </c>
+      <c r="Y16">
+        <v>0.9422836726987539</v>
+      </c>
+      <c r="Z16">
+        <v>0.93879803642489912</v>
+      </c>
+      <c r="AA16">
+        <v>0.93998721896241211</v>
+      </c>
+      <c r="AB16">
+        <v>0.95332152089929423</v>
+      </c>
+      <c r="AC16">
+        <v>0.94775493682597511</v>
+      </c>
+      <c r="AD16">
+        <v>0.95232588395154527</v>
+      </c>
+      <c r="AE16">
+        <v>0.9559930515344528</v>
+      </c>
+      <c r="AF16">
+        <v>0.95332266976879454</v>
+      </c>
+      <c r="AG16">
+        <v>0.95105139167611896</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17">
+        <v>0.97795215647234501</v>
+      </c>
+      <c r="C17">
+        <v>0.97424215875240938</v>
+      </c>
+      <c r="D17">
+        <v>0.97074351719511121</v>
+      </c>
+      <c r="E17">
+        <v>0.96315958346702446</v>
+      </c>
+      <c r="F17">
+        <v>0.96561346394209802</v>
+      </c>
+      <c r="G17">
+        <v>0.96691519105312207</v>
+      </c>
+      <c r="H17">
+        <v>0.96418333960679858</v>
+      </c>
+      <c r="I17">
+        <v>0.96765787416394022</v>
+      </c>
+      <c r="J17">
+        <v>0.96588621066559288</v>
+      </c>
+      <c r="K17">
+        <v>0.95692121001993591</v>
+      </c>
+      <c r="L17">
+        <v>0.95703181437281482</v>
+      </c>
+      <c r="M17">
+        <v>0.95293131844317946</v>
+      </c>
+      <c r="N17">
+        <v>0.94753577106518283</v>
+      </c>
+      <c r="O17">
+        <v>0.9484163949697253</v>
+      </c>
+      <c r="P17">
+        <v>0.94203953305580623</v>
+      </c>
+      <c r="Q17">
         <v>0.94117647058823528</v>
       </c>
-      <c r="R15">
+      <c r="R17">
         <v>0.94955834495583447</v>
       </c>
-      <c r="S15">
+      <c r="S17">
         <v>0.95163398692810452</v>
       </c>
-      <c r="T15">
+      <c r="T17">
         <v>0.96090164410619883</v>
       </c>
-      <c r="U15">
+      <c r="U17">
         <v>0.95448339965724582</v>
       </c>
-      <c r="V15">
+      <c r="V17">
         <v>0.95564527841519742</v>
       </c>
-      <c r="W15">
+      <c r="W17">
         <v>0.95575632571245961</v>
       </c>
-      <c r="X15">
+      <c r="X17">
         <v>0.9632254691221751</v>
       </c>
-      <c r="Y15">
+      <c r="Y17">
         <v>0.97016876288959253</v>
       </c>
-      <c r="Z15">
+      <c r="Z17">
         <v>0.96900688413164093</v>
       </c>
-      <c r="AA15">
+      <c r="AA17">
         <v>0.96787311915412777</v>
       </c>
-      <c r="AB15">
+      <c r="AB17">
         <v>0.96087373282597965</v>
       </c>
-      <c r="AC15">
+      <c r="AC17">
         <v>0.96568074710151219</v>
       </c>
-      <c r="AD15">
+      <c r="AD17">
         <v>0.96389025412703455</v>
       </c>
-      <c r="AE15">
+      <c r="AE17">
         <v>0.95657209033005208</v>
       </c>
-      <c r="AF15">
+      <c r="AF17">
         <v>0.94866947797004508</v>
       </c>
-      <c r="AG15">
+      <c r="AG17">
         <v>0.94872466044266057</v>
       </c>
-      <c r="AH15">
-        <v>0.95519962859795726</v>
-      </c>
-      <c r="AI15">
-        <v>0.95901140022626397</v>
-      </c>
-      <c r="AJ15">
-        <v>0.95729867718728245</v>
-      </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16">
-        <v>0.9890785582525693</v>
-      </c>
-      <c r="C16">
-        <v>0.98709187547456345</v>
-      </c>
-      <c r="D16">
-        <v>0.98999504127410076</v>
-      </c>
-      <c r="E16">
-        <v>0.98824490272146537</v>
-      </c>
-      <c r="F16">
-        <v>0.97840304624596686</v>
-      </c>
-      <c r="G16">
-        <v>0.98322460391425914</v>
-      </c>
-      <c r="H16">
-        <v>0.97923965602107887</v>
-      </c>
-      <c r="I16">
-        <v>0.97576512146393724</v>
-      </c>
-      <c r="J16">
-        <v>0.97106368290858891</v>
-      </c>
-      <c r="K16">
-        <v>0.97714599404813496</v>
-      </c>
-      <c r="L16">
-        <v>0.97725893605339964</v>
-      </c>
-      <c r="M16">
-        <v>0.97142361813401135</v>
-      </c>
-      <c r="N16">
-        <v>0.96834802717155655</v>
-      </c>
-      <c r="O16">
-        <v>0.97578015836050302</v>
-      </c>
-      <c r="P16">
-        <v>0.97522633984454599</v>
-      </c>
-      <c r="Q16">
-        <v>0.97545388525780685</v>
-      </c>
-      <c r="R16">
-        <v>0.97745234774523482</v>
-      </c>
-      <c r="S16">
-        <v>0.96848220769789395</v>
-      </c>
-      <c r="T16">
-        <v>0.96729216290013365</v>
-      </c>
-      <c r="U16">
-        <v>0.96494030847881029</v>
-      </c>
-      <c r="V16">
-        <v>0.9626165509629071</v>
-      </c>
-      <c r="W16">
-        <v>0.96679545652615984</v>
-      </c>
-      <c r="X16">
-        <v>0.96090164410619883</v>
-      </c>
-      <c r="Y16">
-        <v>0.96145467220495551</v>
-      </c>
-      <c r="Z16">
-        <v>0.96435936909983444</v>
-      </c>
-      <c r="AA16">
-        <v>0.96264451286818109</v>
-      </c>
-      <c r="AB16">
-        <v>0.96784500537368934</v>
-      </c>
-      <c r="AC16">
-        <v>0.96394599126839564</v>
-      </c>
-      <c r="AD16">
-        <v>0.96504669114458352</v>
-      </c>
-      <c r="AE16">
-        <v>0.96409959467284312</v>
-      </c>
-      <c r="AF16">
-        <v>0.9568125636178566</v>
-      </c>
-      <c r="AG16">
-        <v>0.95686821975976499</v>
-      </c>
-      <c r="AH16">
-        <v>0.94997678737233049</v>
-      </c>
-      <c r="AI16">
-        <v>0.94856844486989811</v>
-      </c>
-      <c r="AJ16">
-        <v>0.94801578092364824</v>
-      </c>
-    </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17">
-        <v>0.93754575000731999</v>
-      </c>
-      <c r="C17">
-        <v>0.93978155481572345</v>
-      </c>
-      <c r="D17">
-        <v>0.94915847504594109</v>
-      </c>
-      <c r="E17">
-        <v>0.94682495697576052</v>
-      </c>
-      <c r="F17">
-        <v>0.95631194953928433</v>
-      </c>
-      <c r="G17">
-        <v>0.95118825722274003</v>
-      </c>
-      <c r="H17">
-        <v>0.95665518139965844</v>
-      </c>
-      <c r="I17">
-        <v>0.95781335958537228</v>
-      </c>
-      <c r="J17">
-        <v>0.96185928780992924</v>
-      </c>
-      <c r="K17">
-        <v>0.9632775707145127</v>
-      </c>
-      <c r="L17">
-        <v>0.95760973213511724</v>
-      </c>
-      <c r="M17">
-        <v>0.95408708717385649</v>
-      </c>
-      <c r="N17">
-        <v>0.95967625379390087</v>
-      </c>
-      <c r="O17">
-        <v>0.96937587331159758</v>
-      </c>
-      <c r="P17">
-        <v>0.96591074495647877</v>
-      </c>
-      <c r="Q17">
-        <v>0.96848220769789395</v>
-      </c>
-      <c r="R17">
-        <v>0.96524872152487218</v>
-      </c>
-      <c r="S17">
-        <v>0.96092955700798843</v>
-      </c>
-      <c r="T17">
-        <v>0.94812060651832919</v>
-      </c>
-      <c r="U17">
-        <v>0.94402649083568135</v>
-      </c>
-      <c r="V17">
-        <v>0.94925494524646359</v>
-      </c>
-      <c r="W17">
-        <v>0.94355518112889636</v>
-      </c>
-      <c r="X17">
-        <v>0.9423110439783885</v>
-      </c>
-      <c r="Y17">
-        <v>0.9422836726987539</v>
-      </c>
-      <c r="Z17">
-        <v>0.93879803642489912</v>
-      </c>
-      <c r="AA17">
-        <v>0.93998721896241211</v>
-      </c>
-      <c r="AB17">
-        <v>0.95332152089929423</v>
-      </c>
-      <c r="AC17">
-        <v>0.94775493682597511</v>
-      </c>
-      <c r="AD17">
-        <v>0.95232588395154527</v>
-      </c>
-      <c r="AE17">
-        <v>0.9559930515344528</v>
-      </c>
-      <c r="AF17">
-        <v>0.95332266976879454</v>
-      </c>
-      <c r="AG17">
-        <v>0.95105139167611896</v>
-      </c>
-      <c r="AH17">
-        <v>0.95055710306406682</v>
-      </c>
-      <c r="AI17">
-        <v>0.94566762393757431</v>
-      </c>
-      <c r="AJ17">
-        <v>0.94105360872592259</v>
-      </c>
-    </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B18">
         <v>0.92583374813339969</v>
@@ -2488,19 +2325,10 @@
       <c r="AG18">
         <v>0.94639792920920218</v>
       </c>
-      <c r="AH18">
-        <v>0.94069173630454961</v>
-      </c>
-      <c r="AI18">
-        <v>0.93870565369999703</v>
-      </c>
-      <c r="AJ18">
-        <v>0.93873288466001392</v>
-      </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B19">
         <v>0.97209615553538486</v>
@@ -2598,19 +2426,10 @@
       <c r="AG19">
         <v>0.94058110112555615</v>
       </c>
-      <c r="AH19">
-        <v>0.93779015784586817</v>
-      </c>
-      <c r="AI19">
-        <v>0.93638499695413802</v>
-      </c>
-      <c r="AJ19">
-        <v>0.9375725226270597</v>
-      </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B20">
         <v>0.9615553538488566</v>
@@ -2708,19 +2527,10 @@
       <c r="AG20">
         <v>0.91964052002443064</v>
       </c>
-      <c r="AH20">
-        <v>0.9151578458681523</v>
-      </c>
-      <c r="AI20">
-        <v>0.9154990862414063</v>
-      </c>
-      <c r="AJ20">
-        <v>0.92480854026456261</v>
-      </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B21">
         <v>0.86141773782683806</v>
@@ -2817,19 +2627,9 @@
       </c>
       <c r="AG21">
         <v>0.90044498734839884</v>
-      </c>
-      <c r="AH21">
-        <v>0.89774837511606309</v>
-      </c>
-      <c r="AI21">
-        <v>0.89983465320685752</v>
-      </c>
-      <c r="AJ21">
-        <v>0.90508238570433985</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/BK/ELO17-18_score.xlsx
+++ b/Data/BK/ELO17-18_score.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9405"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Team</t>
   </si>
@@ -125,18 +125,27 @@
     <t>GW32</t>
   </si>
   <si>
+    <t>GW33</t>
+  </si>
+  <si>
+    <t>GW34</t>
+  </si>
+  <si>
+    <t>GW35</t>
+  </si>
+  <si>
     <t>MCI</t>
   </si>
   <si>
+    <t>LIV</t>
+  </si>
+  <si>
     <t>TOT</t>
   </si>
   <si>
     <t>MUN</t>
   </si>
   <si>
-    <t>LIV</t>
-  </si>
-  <si>
     <t>CHE</t>
   </si>
   <si>
@@ -146,40 +155,40 @@
     <t>LEI</t>
   </si>
   <si>
+    <t>BUR</t>
+  </si>
+  <si>
+    <t>EVE</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
     <t>BOU</t>
   </si>
   <si>
-    <t>EVE</t>
-  </si>
-  <si>
-    <t>BUR</t>
+    <t>CRY</t>
+  </si>
+  <si>
+    <t>SWA</t>
+  </si>
+  <si>
+    <t>WHU</t>
   </si>
   <si>
     <t>SOU</t>
   </si>
   <si>
-    <t>CRY</t>
-  </si>
-  <si>
-    <t>WHU</t>
-  </si>
-  <si>
-    <t>SWA</t>
-  </si>
-  <si>
     <t>WAT</t>
   </si>
   <si>
+    <t>BHA</t>
+  </si>
+  <si>
     <t>STK</t>
   </si>
   <si>
-    <t>NEW</t>
-  </si>
-  <si>
     <t>WBA</t>
-  </si>
-  <si>
-    <t>BHA</t>
   </si>
   <si>
     <t>HUD</t>
@@ -500,15 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG21"/>
+  <dimension ref="A1:AJ21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -608,2028 +615,2218 @@
       <c r="AG1" t="s">
         <v>32</v>
       </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B2">
-        <v>1.0915585746493719</v>
+        <v>1.0920000000000001</v>
       </c>
       <c r="C2">
-        <v>1.0939781554815724</v>
+        <v>1.0940000000000001</v>
       </c>
       <c r="D2">
-        <v>1.0909196978094098</v>
+        <v>1.091</v>
       </c>
       <c r="E2">
-        <v>1.0932532158795905</v>
+        <v>1.093</v>
       </c>
       <c r="F2">
-        <v>1.1045548353341277</v>
+        <v>1.105</v>
       </c>
       <c r="G2">
-        <v>1.1102050326188257</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="H2">
-        <v>1.1130092364710311</v>
+        <v>1.113</v>
       </c>
       <c r="I2">
-        <v>1.1188001273996004</v>
+        <v>1.119</v>
       </c>
       <c r="J2">
-        <v>1.1200598285681413</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="K2">
-        <v>1.1250758429401058</v>
+        <v>1.125</v>
       </c>
       <c r="L2">
-        <v>1.1344525673996591</v>
+        <v>1.1339999999999999</v>
       </c>
       <c r="M2">
-        <v>1.1372764309861596</v>
+        <v>1.137</v>
       </c>
       <c r="N2">
-        <v>1.1412053764994941</v>
+        <v>1.141</v>
       </c>
       <c r="O2">
-        <v>1.1434559850954822</v>
+        <v>1.143</v>
       </c>
       <c r="P2">
-        <v>1.1446537218712702</v>
+        <v>1.145</v>
       </c>
       <c r="Q2">
-        <v>1.1381263616557735</v>
+        <v>1.1379999999999999</v>
       </c>
       <c r="R2">
-        <v>1.1436541143654115</v>
+        <v>1.1439999999999999</v>
       </c>
       <c r="S2">
-        <v>1.145679012345679</v>
+        <v>1.1459999999999999</v>
       </c>
       <c r="T2">
-        <v>1.1508743391622611</v>
+        <v>1.151</v>
       </c>
       <c r="U2">
-        <v>1.1520027885090192</v>
+        <v>1.1519999999999999</v>
       </c>
       <c r="V2">
-        <v>1.1531646672669706</v>
+        <v>1.153</v>
       </c>
       <c r="W2">
-        <v>1.149231618394678</v>
+        <v>1.149</v>
       </c>
       <c r="X2">
-        <v>1.1502933829082671</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="Y2">
-        <v>1.1450315159613096</v>
+        <v>1.145</v>
       </c>
       <c r="Z2">
-        <v>1.1456124553402853</v>
+        <v>1.1459999999999999</v>
       </c>
       <c r="AA2">
-        <v>1.1468076453843026</v>
+        <v>1.147</v>
       </c>
       <c r="AB2">
-        <v>1.1432886978243821</v>
+        <v>1.143</v>
       </c>
       <c r="AC2">
-        <v>1.1466736056899991</v>
+        <v>1.147</v>
       </c>
       <c r="AD2">
-        <v>1.1523894879875105</v>
+        <v>1.1519999999999999</v>
       </c>
       <c r="AE2">
-        <v>1.1540243196294151</v>
+        <v>1.1539999999999999</v>
       </c>
       <c r="AF2">
-        <v>1.1568998109640831</v>
+        <v>1.157</v>
       </c>
       <c r="AG2">
-        <v>1.1569671058371869</v>
+        <v>1.157</v>
+      </c>
+      <c r="AH2">
+        <v>1.1479999999999999</v>
+      </c>
+      <c r="AI2">
+        <v>1.1359999999999999</v>
+      </c>
+      <c r="AJ2">
+        <v>1.1439999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B3">
-        <v>1.1038561766169881</v>
+        <v>1.075</v>
       </c>
       <c r="C3">
-        <v>1.1062437941709014</v>
+        <v>1.0760000000000001</v>
       </c>
       <c r="D3">
-        <v>1.100253770090132</v>
+        <v>1.08</v>
       </c>
       <c r="E3">
-        <v>1.0961701134673161</v>
+        <v>1.0860000000000001</v>
       </c>
       <c r="F3">
-        <v>1.1062988692846554</v>
+        <v>1.0760000000000001</v>
       </c>
       <c r="G3">
-        <v>1.1020503261882573</v>
+        <v>1.073</v>
       </c>
       <c r="H3">
-        <v>1.1072183455424618</v>
+        <v>1.0740000000000001</v>
       </c>
       <c r="I3">
-        <v>1.1089556128210325</v>
+        <v>1.071</v>
       </c>
       <c r="J3">
-        <v>1.1097048840821493</v>
+        <v>1.0720000000000001</v>
       </c>
       <c r="K3">
-        <v>1.1169859293288262</v>
+        <v>1.071</v>
       </c>
       <c r="L3">
-        <v>1.1200046233420984</v>
+        <v>1.073</v>
       </c>
       <c r="M3">
-        <v>1.1205177843913432</v>
+        <v>1.0780000000000001</v>
       </c>
       <c r="N3">
-        <v>1.1169244110420582</v>
+        <v>1.081</v>
       </c>
       <c r="O3">
-        <v>1.1143455985095483</v>
+        <v>1.0820000000000001</v>
       </c>
       <c r="P3">
-        <v>1.1073913423190009</v>
+        <v>1.0860000000000001</v>
       </c>
       <c r="Q3">
-        <v>1.1055918663761801</v>
+        <v>1.0940000000000001</v>
       </c>
       <c r="R3">
-        <v>1.1082054858205486</v>
+        <v>1.091</v>
       </c>
       <c r="S3">
-        <v>1.1090777051561365</v>
+        <v>1.0860000000000001</v>
       </c>
       <c r="T3">
-        <v>1.1043978388427351</v>
+        <v>1.091</v>
       </c>
       <c r="U3">
-        <v>1.1090132744648096</v>
+        <v>1.091</v>
       </c>
       <c r="V3">
-        <v>1.110756092601737</v>
+        <v>1.093</v>
       </c>
       <c r="W3">
-        <v>1.1108851639891932</v>
+        <v>1.095</v>
       </c>
       <c r="X3">
-        <v>1.1090454888746877</v>
+        <v>1.0980000000000001</v>
       </c>
       <c r="Y3">
-        <v>1.1119179713596887</v>
+        <v>1.103</v>
       </c>
       <c r="Z3">
-        <v>1.1084323350858338</v>
+        <v>1.095</v>
       </c>
       <c r="AA3">
-        <v>1.1142740951606345</v>
+        <v>1.097</v>
       </c>
       <c r="AB3">
-        <v>1.1148226682545677</v>
+        <v>1.097</v>
       </c>
       <c r="AC3">
-        <v>1.1189175123601354</v>
+        <v>1.1060000000000001</v>
       </c>
       <c r="AD3">
-        <v>1.1205874700049148</v>
+        <v>1.1080000000000001</v>
       </c>
       <c r="AE3">
-        <v>1.1134916039374638</v>
+        <v>1.109</v>
       </c>
       <c r="AF3">
-        <v>1.1179293296495565</v>
+        <v>1.1060000000000001</v>
       </c>
       <c r="AG3">
-        <v>1.1179943576767588</v>
+        <v>1.109</v>
+      </c>
+      <c r="AH3">
+        <v>1.121</v>
+      </c>
+      <c r="AI3">
+        <v>1.123</v>
+      </c>
+      <c r="AJ3">
+        <v>1.1240000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B4">
-        <v>1.0745761719321874</v>
+        <v>1.1040000000000001</v>
       </c>
       <c r="C4">
-        <v>1.0758717364639916</v>
+        <v>1.1060000000000001</v>
       </c>
       <c r="D4">
-        <v>1.0798354869760523</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E4">
-        <v>1.0862526616690487</v>
+        <v>1.0960000000000001</v>
       </c>
       <c r="F4">
-        <v>1.0760689474755107</v>
+        <v>1.1060000000000001</v>
       </c>
       <c r="G4">
-        <v>1.0729263746505127</v>
+        <v>1.1020000000000001</v>
       </c>
       <c r="H4">
-        <v>1.0736311781567596</v>
+        <v>1.107</v>
       </c>
       <c r="I4">
-        <v>1.0713148217853317</v>
+        <v>1.109</v>
       </c>
       <c r="J4">
-        <v>1.0717367543001783</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="K4">
-        <v>1.0707578515500853</v>
+        <v>1.117</v>
       </c>
       <c r="L4">
-        <v>1.073193284595602</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="M4">
-        <v>1.0777543413562947</v>
+        <v>1.121</v>
       </c>
       <c r="N4">
-        <v>1.080502962855904</v>
+        <v>1.117</v>
       </c>
       <c r="O4">
-        <v>1.0823241732650211</v>
+        <v>1.1140000000000001</v>
       </c>
       <c r="P4">
-        <v>1.0864312538208496</v>
+        <v>1.107</v>
       </c>
       <c r="Q4">
-        <v>1.0939724037763254</v>
+        <v>1.1060000000000001</v>
       </c>
       <c r="R4">
-        <v>1.0907717340771734</v>
+        <v>1.1080000000000001</v>
       </c>
       <c r="S4">
-        <v>1.0864197530864197</v>
+        <v>1.109</v>
       </c>
       <c r="T4">
-        <v>1.0910358450008715</v>
+        <v>1.1040000000000001</v>
       </c>
       <c r="U4">
-        <v>1.0910041537165598</v>
+        <v>1.109</v>
       </c>
       <c r="V4">
-        <v>1.093327911232463</v>
+        <v>1.111</v>
       </c>
       <c r="W4">
-        <v>1.0951979780960404</v>
+        <v>1.111</v>
       </c>
       <c r="X4">
-        <v>1.0980073200488003</v>
+        <v>1.109</v>
       </c>
       <c r="Y4">
-        <v>1.1032038806750517</v>
+        <v>1.1120000000000001</v>
       </c>
       <c r="Z4">
-        <v>1.0950707293693904</v>
+        <v>1.1080000000000001</v>
       </c>
       <c r="AA4">
-        <v>1.0974263637948063</v>
+        <v>1.1140000000000001</v>
       </c>
       <c r="AB4">
-        <v>1.0968135475063179</v>
+        <v>1.115</v>
       </c>
       <c r="AC4">
-        <v>1.1061959695839478</v>
+        <v>1.119</v>
       </c>
       <c r="AD4">
-        <v>1.1084448813206511</v>
+        <v>1.121</v>
       </c>
       <c r="AE4">
-        <v>1.1094383323682686</v>
+        <v>1.113</v>
       </c>
       <c r="AF4">
-        <v>1.1062963501526828</v>
+        <v>1.1180000000000001</v>
       </c>
       <c r="AG4">
-        <v>1.1086874327429252</v>
+        <v>1.1180000000000001</v>
+      </c>
+      <c r="AH4">
+        <v>1.123</v>
+      </c>
+      <c r="AI4">
+        <v>1.125</v>
+      </c>
+      <c r="AJ4">
+        <v>1.1140000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B5">
-        <v>1.0862881738061076</v>
+        <v>1.0860000000000001</v>
       </c>
       <c r="C5">
-        <v>1.0887214531861458</v>
+        <v>1.089</v>
       </c>
       <c r="D5">
-        <v>1.0944199749146808</v>
+        <v>1.0940000000000001</v>
       </c>
       <c r="E5">
-        <v>1.0967534929848612</v>
+        <v>1.097</v>
       </c>
       <c r="F5">
-        <v>1.095253320931314</v>
+        <v>1.095</v>
       </c>
       <c r="G5">
-        <v>1.0997204100652376</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H5">
-        <v>1.1083765237281757</v>
+        <v>1.1080000000000001</v>
       </c>
       <c r="I5">
-        <v>1.1101137910067465</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="J5">
-        <v>1.1097048840821493</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="K5">
-        <v>1.1036953569674381</v>
+        <v>1.1040000000000001</v>
       </c>
       <c r="L5">
-        <v>1.1096021036206549</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="M5">
-        <v>1.1054927908925423</v>
+        <v>1.105</v>
       </c>
       <c r="N5">
-        <v>1.1001589825119238</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O5">
-        <v>1.1032836516068933</v>
+        <v>1.103</v>
       </c>
       <c r="P5">
-        <v>1.1062268929579926</v>
+        <v>1.1060000000000001</v>
       </c>
       <c r="Q5">
-        <v>1.1143064633260711</v>
+        <v>1.1140000000000001</v>
       </c>
       <c r="R5">
-        <v>1.1093677359367735</v>
+        <v>1.109</v>
       </c>
       <c r="S5">
-        <v>1.1102396514161219</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="T5">
-        <v>1.1119502701446582</v>
+        <v>1.1120000000000001</v>
       </c>
       <c r="U5">
-        <v>1.1101751532227613</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="V5">
-        <v>1.1061085775699306</v>
+        <v>1.1060000000000001</v>
       </c>
       <c r="W5">
-        <v>1.1021700607152194</v>
+        <v>1.1020000000000001</v>
       </c>
       <c r="X5">
-        <v>1.1061407076047174</v>
+        <v>1.1060000000000001</v>
       </c>
       <c r="Y5">
-        <v>1.1078513957068581</v>
+        <v>1.1080000000000001</v>
       </c>
       <c r="Z5">
-        <v>1.1101751532227613</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="AA5">
-        <v>1.1043978388427351</v>
+        <v>1.1040000000000001</v>
       </c>
       <c r="AB5">
-        <v>1.1055276381909549</v>
+        <v>1.1060000000000001</v>
       </c>
       <c r="AC5">
-        <v>1.096365686529621</v>
+        <v>1.0960000000000001</v>
       </c>
       <c r="AD5">
-        <v>1.0997716036890341</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AE5">
-        <v>1.102489866821077</v>
+        <v>1.1020000000000001</v>
       </c>
       <c r="AF5">
-        <v>1.0969899665551839</v>
+        <v>1.097</v>
       </c>
       <c r="AG5">
-        <v>1.0970537765756332</v>
+        <v>1.097</v>
+      </c>
+      <c r="AH5">
+        <v>1.099</v>
+      </c>
+      <c r="AI5">
+        <v>1.105</v>
+      </c>
+      <c r="AJ5">
+        <v>1.099</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B6">
-        <v>1.1167393786783004</v>
+        <v>1.117</v>
       </c>
       <c r="C6">
-        <v>1.1068278722037266</v>
+        <v>1.107</v>
       </c>
       <c r="D6">
-        <v>1.111921360441035</v>
+        <v>1.1120000000000001</v>
       </c>
       <c r="E6">
-        <v>1.1148382580287606</v>
+        <v>1.115</v>
       </c>
       <c r="F6">
-        <v>1.1179257622881724</v>
+        <v>1.1180000000000001</v>
       </c>
       <c r="G6">
-        <v>1.1160298229263748</v>
+        <v>1.1160000000000001</v>
       </c>
       <c r="H6">
-        <v>1.1257491965138837</v>
+        <v>1.1259999999999999</v>
       </c>
       <c r="I6">
-        <v>1.1199583055853144</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="J6">
-        <v>1.1051026865328195</v>
+        <v>1.105</v>
       </c>
       <c r="K6">
-        <v>1.110051717662015</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L6">
-        <v>1.1049787615222355</v>
+        <v>1.105</v>
       </c>
       <c r="M6">
-        <v>1.1089600970845734</v>
+        <v>1.109</v>
       </c>
       <c r="N6">
-        <v>1.1151900563665269</v>
+        <v>1.115</v>
       </c>
       <c r="O6">
-        <v>1.1172566371681416</v>
+        <v>1.117</v>
       </c>
       <c r="P6">
-        <v>1.1178713865680767</v>
+        <v>1.1180000000000001</v>
       </c>
       <c r="Q6">
-        <v>1.1172113289760348</v>
+        <v>1.117</v>
       </c>
       <c r="R6">
-        <v>1.1093677359367735</v>
+        <v>1.109</v>
       </c>
       <c r="S6">
-        <v>1.1108206245461147</v>
+        <v>1.111</v>
       </c>
       <c r="T6">
-        <v>1.1119502701446582</v>
+        <v>1.1120000000000001</v>
       </c>
       <c r="U6">
-        <v>1.1095942138437855</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="V6">
-        <v>1.110756092601737</v>
+        <v>1.111</v>
       </c>
       <c r="W6">
-        <v>1.1132091915289195</v>
+        <v>1.113</v>
       </c>
       <c r="X6">
-        <v>1.1125312263986522</v>
+        <v>1.113</v>
       </c>
       <c r="Y6">
-        <v>1.1090132744648096</v>
+        <v>1.109</v>
       </c>
       <c r="Z6">
-        <v>1.1124989107386645</v>
+        <v>1.1120000000000001</v>
       </c>
       <c r="AA6">
-        <v>1.0974263637948063</v>
+        <v>1.097</v>
       </c>
       <c r="AB6">
-        <v>1.08403288116885</v>
+        <v>1.0840000000000001</v>
       </c>
       <c r="AC6">
-        <v>1.0848006476421777</v>
+        <v>1.085</v>
       </c>
       <c r="AD6">
-        <v>1.0812686114082513</v>
+        <v>1.081</v>
       </c>
       <c r="AE6">
-        <v>1.0793283149971049</v>
+        <v>1.079</v>
       </c>
       <c r="AF6">
-        <v>1.0777955503853425</v>
+        <v>1.0780000000000001</v>
       </c>
       <c r="AG6">
-        <v>1.0778582438996014</v>
+        <v>1.0780000000000001</v>
+      </c>
+      <c r="AH6">
+        <v>1.071</v>
+      </c>
+      <c r="AI6">
+        <v>1.0680000000000001</v>
+      </c>
+      <c r="AJ6">
+        <v>1.0740000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B7">
-        <v>1.0804321728691475</v>
+        <v>1.08</v>
       </c>
       <c r="C7">
-        <v>1.0822965948250687</v>
+        <v>1.0820000000000001</v>
       </c>
       <c r="D7">
-        <v>1.0751684508356911</v>
+        <v>1.075</v>
       </c>
       <c r="E7">
-        <v>1.0687512761426945</v>
+        <v>1.069</v>
       </c>
       <c r="F7">
-        <v>1.0702555009737522</v>
+        <v>1.07</v>
       </c>
       <c r="G7">
-        <v>1.0746738117427772</v>
+        <v>1.075</v>
       </c>
       <c r="H7">
-        <v>1.077105712713901</v>
+        <v>1.077</v>
       </c>
       <c r="I7">
-        <v>1.0788429799924719</v>
+        <v>1.079</v>
       </c>
       <c r="J7">
-        <v>1.0688603808318473</v>
+        <v>1.069</v>
       </c>
       <c r="K7">
-        <v>1.0788477651613648</v>
+        <v>1.079</v>
       </c>
       <c r="L7">
-        <v>1.0749270378825093</v>
+        <v>1.075</v>
       </c>
       <c r="M7">
-        <v>1.0713976133375711</v>
+        <v>1.071</v>
       </c>
       <c r="N7">
-        <v>1.0787686081803729</v>
+        <v>1.079</v>
       </c>
       <c r="O7">
-        <v>1.0759198882161156</v>
+        <v>1.0760000000000001</v>
       </c>
       <c r="P7">
-        <v>1.0776978836132864</v>
+        <v>1.0780000000000001</v>
       </c>
       <c r="Q7">
-        <v>1.0713144517066087</v>
+        <v>1.071</v>
       </c>
       <c r="R7">
-        <v>1.0698512319851232</v>
+        <v>1.07</v>
       </c>
       <c r="S7">
-        <v>1.0672476397966595</v>
+        <v>1.0669999999999999</v>
       </c>
       <c r="T7">
-        <v>1.0683785510951025</v>
+        <v>1.0680000000000001</v>
       </c>
       <c r="U7">
-        <v>1.0683475179365034</v>
+        <v>1.0680000000000001</v>
       </c>
       <c r="V7">
-        <v>1.0712522148313823</v>
+        <v>1.071</v>
       </c>
       <c r="W7">
-        <v>1.0684716613891874</v>
+        <v>1.0680000000000001</v>
       </c>
       <c r="X7">
-        <v>1.0689595073490967</v>
+        <v>1.069</v>
       </c>
       <c r="Y7">
-        <v>1.0619571847677696</v>
+        <v>1.0620000000000001</v>
       </c>
       <c r="Z7">
-        <v>1.0654428210416245</v>
+        <v>1.0649999999999999</v>
       </c>
       <c r="AA7">
-        <v>1.0555975135072329</v>
+        <v>1.056</v>
       </c>
       <c r="AB7">
-        <v>1.0596334272518664</v>
+        <v>1.06</v>
       </c>
       <c r="AC7">
-        <v>1.0570445543123139</v>
+        <v>1.0569999999999999</v>
       </c>
       <c r="AD7">
-        <v>1.0517794674607535</v>
+        <v>1.052</v>
       </c>
       <c r="AE7">
-        <v>1.0515344528083381</v>
+        <v>1.052</v>
       </c>
       <c r="AF7">
-        <v>1.0574378362658137</v>
+        <v>1.0569999999999999</v>
       </c>
       <c r="AG7">
-        <v>1.0574993456068404</v>
+        <v>1.0569999999999999</v>
+      </c>
+      <c r="AH7">
+        <v>1.0660000000000001</v>
+      </c>
+      <c r="AI7">
+        <v>1.0680000000000001</v>
+      </c>
+      <c r="AJ7">
+        <v>1.0620000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B8">
-        <v>1.0037185605949697</v>
+        <v>1.004</v>
       </c>
       <c r="C8">
-        <v>1.0016938262951931</v>
+        <v>1.002</v>
       </c>
       <c r="D8">
-        <v>1.0039961496951841</v>
+        <v>1.004</v>
       </c>
       <c r="E8">
-        <v>1.0016626316250037</v>
+        <v>1.002</v>
       </c>
       <c r="F8">
-        <v>0.99816876435194601</v>
+        <v>0.998</v>
       </c>
       <c r="G8">
-        <v>0.9966216216216216</v>
+        <v>0.997</v>
       </c>
       <c r="H8">
-        <v>0.99197961606393148</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="I8">
-        <v>0.99197961606393148</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="J8">
-        <v>0.98717137433124325</v>
+        <v>0.98699999999999999</v>
       </c>
       <c r="K8">
-        <v>0.99448152321516281</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="L8">
-        <v>0.99921981102089175</v>
+        <v>0.999</v>
       </c>
       <c r="M8">
-        <v>0.99973995203559762</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>0.99667582020523193</v>
+        <v>0.997</v>
       </c>
       <c r="O8">
-        <v>0.99732184443409411</v>
+        <v>0.997</v>
       </c>
       <c r="P8">
-        <v>1.0037553491892521</v>
+        <v>1.004</v>
       </c>
       <c r="Q8">
-        <v>1.0068264342774147</v>
+        <v>1.0069999999999999</v>
       </c>
       <c r="R8">
-        <v>1.0111576011157601</v>
+        <v>1.0109999999999999</v>
       </c>
       <c r="S8">
-        <v>1.0190268700072622</v>
+        <v>1.0189999999999999</v>
       </c>
       <c r="T8">
-        <v>1.0062162319177366</v>
+        <v>1.006</v>
       </c>
       <c r="U8">
-        <v>1.0085107619019955</v>
+        <v>1.0089999999999999</v>
       </c>
       <c r="V8">
-        <v>1.0032823074912134</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="W8">
-        <v>1.0010748627371233</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="X8">
-        <v>1.0044733631557543</v>
+        <v>1.004</v>
       </c>
       <c r="Y8">
-        <v>1.0079298225230198</v>
+        <v>1.008</v>
       </c>
       <c r="Z8">
-        <v>1.0114154587968747</v>
+        <v>1.0109999999999999</v>
       </c>
       <c r="AA8">
-        <v>1.0062162319177366</v>
+        <v>1.006</v>
       </c>
       <c r="AB8">
-        <v>1.0044441862491649</v>
+        <v>1.004</v>
       </c>
       <c r="AC8">
-        <v>1.0015323676525862</v>
+        <v>1.002</v>
       </c>
       <c r="AD8">
-        <v>0.9985833646535025</v>
+        <v>0.999</v>
       </c>
       <c r="AE8">
-        <v>0.99710480602200346</v>
+        <v>0.997</v>
       </c>
       <c r="AF8">
-        <v>1.0045077795550386</v>
+        <v>1.0049999999999999</v>
       </c>
       <c r="AG8">
-        <v>1.004566210045662</v>
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="AH8">
+        <v>1.01</v>
+      </c>
+      <c r="AI8">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="AJ8">
+        <v>0.997</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B9">
-        <v>0.95218575234972036</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="C9">
-        <v>0.96139244203025531</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="D9">
-        <v>0.9555756497389376</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="E9">
-        <v>0.95965930636175356</v>
+        <v>0.96</v>
       </c>
       <c r="F9">
-        <v>0.96270674069121875</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="G9">
-        <v>0.96633271202236726</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="H9">
-        <v>0.96302516142108463</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="I9">
-        <v>0.96939514144251093</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="J9">
-        <v>0.96588621066559288</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="K9">
-        <v>0.96674467654791829</v>
+        <v>0.96699999999999997</v>
       </c>
       <c r="L9">
-        <v>0.97032392290577052</v>
+        <v>0.97</v>
       </c>
       <c r="M9">
-        <v>0.97604669305671932</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="N9">
-        <v>0.98048850990027459</v>
+        <v>0.98</v>
       </c>
       <c r="O9">
-        <v>0.97810898928737777</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="P9">
-        <v>0.98337748537160496</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="Q9">
-        <v>0.97952069716775603</v>
+        <v>0.98</v>
       </c>
       <c r="R9">
-        <v>0.97745234774523482</v>
+        <v>0.97699999999999998</v>
       </c>
       <c r="S9">
-        <v>0.98649237472766882</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="T9">
-        <v>0.98588276302794398</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="U9">
-        <v>0.98120661109013285</v>
+        <v>0.98099999999999998</v>
       </c>
       <c r="V9">
-        <v>0.98527318674296338</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="W9">
-        <v>0.98364465618917574</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="X9">
-        <v>0.98123511299599142</v>
+        <v>0.98099999999999998</v>
       </c>
       <c r="Y9">
-        <v>0.97655909605832636</v>
+        <v>0.97699999999999998</v>
       </c>
       <c r="Z9">
-        <v>0.97423533854242317</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="AA9">
-        <v>0.97426363794806259</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="AB9">
-        <v>0.97772097481627795</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="AC9">
-        <v>0.97261977043397818</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="AD9">
-        <v>0.97140709474110265</v>
+        <v>0.97099999999999997</v>
       </c>
       <c r="AE9">
-        <v>0.97568037058482915</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="AF9">
-        <v>0.98473171441035334</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="AG9">
-        <v>0.98478899456126567</v>
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="AH9">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="AI9">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="AJ9">
+        <v>0.99299999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B10">
-        <v>1.0242145638743301</v>
+        <v>1.024</v>
       </c>
       <c r="C10">
-        <v>1.0279773377723265</v>
+        <v>1.028</v>
       </c>
       <c r="D10">
-        <v>1.0314149870198057</v>
+        <v>1.0309999999999999</v>
       </c>
       <c r="E10">
-        <v>1.0284980894320799</v>
+        <v>1.028</v>
       </c>
       <c r="F10">
-        <v>1.0208412057088043</v>
+        <v>1.0209999999999999</v>
       </c>
       <c r="G10">
-        <v>1.010601118359739</v>
+        <v>1.0109999999999999</v>
       </c>
       <c r="H10">
-        <v>1.0076150215710689</v>
+        <v>1.008</v>
       </c>
       <c r="I10">
-        <v>1.0006659524567856</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="J10">
-        <v>0.99695104412356905</v>
+        <v>0.997</v>
       </c>
       <c r="K10">
-        <v>0.98696946057611745</v>
+        <v>0.98699999999999999</v>
       </c>
       <c r="L10">
-        <v>0.97725893605339964</v>
+        <v>0.97699999999999998</v>
       </c>
       <c r="M10">
-        <v>0.98066976797942729</v>
+        <v>0.98099999999999998</v>
       </c>
       <c r="N10">
-        <v>0.97991039167509753</v>
+        <v>0.98</v>
       </c>
       <c r="O10">
-        <v>0.96238938053097345</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="P10">
-        <v>0.96940409303950392</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="Q10">
-        <v>0.97835875090777047</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="R10">
-        <v>0.98210134821013484</v>
+        <v>0.98199999999999998</v>
       </c>
       <c r="S10">
-        <v>0.98649237472766882</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="T10">
-        <v>0.98994945680590252</v>
+        <v>0.99</v>
       </c>
       <c r="U10">
-        <v>0.99224445929067306</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="V10">
-        <v>0.99224445929067306</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="W10">
-        <v>0.98713069749876525</v>
+        <v>0.98699999999999999</v>
       </c>
       <c r="X10">
-        <v>0.9835589380119677</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="Y10">
-        <v>0.980625671711157</v>
+        <v>0.98099999999999998</v>
       </c>
       <c r="Z10">
-        <v>0.97888285357422955</v>
+        <v>0.97899999999999998</v>
       </c>
       <c r="AA10">
-        <v>0.9835589380119677</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="AB10">
-        <v>0.97888285357422955</v>
+        <v>0.97899999999999998</v>
       </c>
       <c r="AC10">
-        <v>0.98302830543267705</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="AD10">
-        <v>0.97834571684639626</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="AE10">
-        <v>0.97452229299363058</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="AF10">
-        <v>0.98007852261160389</v>
+        <v>0.98</v>
       </c>
       <c r="AG10">
-        <v>0.98478899456126567</v>
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="AH10">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="AI10">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="AJ10">
+        <v>0.98499999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B11">
-        <v>0.96682575469212073</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="C11">
-        <v>0.96314467612873089</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="D11">
-        <v>0.95382551118630221</v>
+        <v>0.94</v>
       </c>
       <c r="E11">
-        <v>0.95149199311612165</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="F11">
-        <v>0.94875446908699823</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="G11">
-        <v>0.95235321528424977</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="H11">
-        <v>0.94912702319251818</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="I11">
-        <v>0.94970611228537516</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="J11">
-        <v>0.94575159638727491</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="K11">
-        <v>0.95460980613099888</v>
+        <v>0.96</v>
       </c>
       <c r="L11">
-        <v>0.95298639003669783</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="M11">
-        <v>0.958132277731226</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="N11">
-        <v>0.96314496314496312</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="O11">
-        <v>0.96413600372612951</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="P11">
-        <v>0.95892404879042825</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="Q11">
-        <v>0.9580246913580247</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="R11">
-        <v>0.95885634588563462</v>
+        <v>0.93700000000000006</v>
       </c>
       <c r="S11">
-        <v>0.95744371822803198</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="T11">
-        <v>0.95276825655028174</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="U11">
-        <v>0.95157870276236678</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="V11">
-        <v>0.95041682400441518</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="W11">
-        <v>0.95517531882752804</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="X11">
-        <v>0.95567303782025215</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="Y11">
-        <v>0.9626165509629071</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="Z11">
-        <v>0.9637784297208587</v>
+        <v>0.93899999999999995</v>
       </c>
       <c r="AA11">
-        <v>0.97833033172602102</v>
+        <v>0.93899999999999995</v>
       </c>
       <c r="AB11">
-        <v>0.98178755046910859</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="AC11">
-        <v>0.97030676265648952</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="AD11">
-        <v>0.96909422070600482</v>
+        <v>0.95</v>
       </c>
       <c r="AE11">
-        <v>0.97046902142443547</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="AF11">
-        <v>0.9678638941398866</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="AG11">
-        <v>0.97024692435215076</v>
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="AH11">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="AI11">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="AJ11">
+        <v>0.97199999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B12">
-        <v>0.96448335431733667</v>
+        <v>0.96699999999999997</v>
       </c>
       <c r="C12">
-        <v>0.96606506629285682</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="D12">
-        <v>0.96024268587929873</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="E12">
-        <v>0.96782661960738559</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="F12">
-        <v>0.96096270674069117</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="G12">
-        <v>0.96575023299161233</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="H12">
-        <v>0.95897153777108612</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="I12">
-        <v>0.95549700321394448</v>
+        <v>0.95</v>
       </c>
       <c r="J12">
-        <v>0.95553126617960082</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="K12">
-        <v>0.95345410418653032</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="L12">
-        <v>0.95183055451209297</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="M12">
-        <v>0.94599670605911756</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="N12">
-        <v>0.94175458881341234</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="O12">
-        <v>0.94201210992081985</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="P12">
-        <v>0.94087508369479789</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="Q12">
-        <v>0.93769063180827883</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="R12">
-        <v>0.94200371920037196</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="S12">
-        <v>0.93885257806826439</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="T12">
-        <v>0.93533956893045955</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="U12">
-        <v>0.93473146077206848</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="V12">
-        <v>0.93240770325616529</v>
+        <v>0.95</v>
       </c>
       <c r="W12">
-        <v>0.93832611916451203</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="X12">
-        <v>0.93592052518445368</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="Y12">
-        <v>0.93705521828797167</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="Z12">
-        <v>0.94518836959363295</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="AA12">
-        <v>0.95509208156625813</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="AB12">
-        <v>0.95738809655212487</v>
+        <v>0.98199999999999998</v>
       </c>
       <c r="AC12">
-        <v>0.96105473154653487</v>
+        <v>0.97</v>
       </c>
       <c r="AD12">
-        <v>0.95348232096909424</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="AE12">
-        <v>0.9606253618992473</v>
+        <v>0.97</v>
       </c>
       <c r="AF12">
-        <v>0.96030245746691867</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="AG12">
-        <v>0.96035831660995252</v>
+        <v>0.97</v>
+      </c>
+      <c r="AH12">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="AI12">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="AJ12">
+        <v>0.96399999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B13">
-        <v>0.96038415366146457</v>
+        <v>0.96</v>
       </c>
       <c r="C13">
-        <v>0.94620641317680043</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="D13">
-        <v>0.94507481842312513</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="E13">
-        <v>0.93749088469503827</v>
+        <v>0.93700000000000006</v>
       </c>
       <c r="F13">
-        <v>0.93422085283260181</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="G13">
-        <v>0.92963653308480898</v>
+        <v>0.93</v>
       </c>
       <c r="H13">
-        <v>0.92712163766395461</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="I13">
-        <v>0.92596345947824077</v>
+        <v>0.92600000000000005</v>
       </c>
       <c r="J13">
-        <v>0.93136972904561932</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="K13">
-        <v>0.93091791626939413</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="L13">
-        <v>0.9304475973069033</v>
+        <v>0.93</v>
       </c>
       <c r="M13">
-        <v>0.92981594382963961</v>
+        <v>0.93</v>
       </c>
       <c r="N13">
-        <v>0.93019222430987136</v>
+        <v>0.93</v>
       </c>
       <c r="O13">
-        <v>0.9356078248719143</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="P13">
-        <v>0.93679951093126845</v>
+        <v>0.93700000000000006</v>
       </c>
       <c r="Q13">
-        <v>0.93769063180827883</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="R13">
-        <v>0.93793584379358441</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="S13">
-        <v>0.941757443718228</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="T13">
-        <v>0.95451112531226401</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="U13">
-        <v>0.95506433903622157</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="V13">
-        <v>0.95215964214134263</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="W13">
-        <v>0.95633733259739118</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="X13">
-        <v>0.96206355661418697</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="Y13">
-        <v>0.96610218723676189</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="Z13">
-        <v>0.96319749034188284</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="AA13">
-        <v>0.96438738163016324</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="AB13">
-        <v>0.9626165509629071</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="AC13">
-        <v>0.95758521988030187</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="AD13">
-        <v>0.95579519500419208</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="AE13">
-        <v>0.95367689635205555</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="AF13">
-        <v>0.95274102079395084</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="AG13">
-        <v>0.9586132681848587</v>
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="AH13">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="AI13">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="AJ13">
+        <v>0.96099999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B14">
-        <v>0.9890785582525693</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="C14">
-        <v>0.98709187547456345</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="D14">
-        <v>0.98999504127410076</v>
+        <v>0.96</v>
       </c>
       <c r="E14">
-        <v>0.98824490272146537</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="F14">
-        <v>0.97840304624596686</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="G14">
-        <v>0.98322460391425914</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="H14">
-        <v>0.97923965602107887</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="I14">
-        <v>0.97576512146393724</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="J14">
-        <v>0.97106368290858891</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="K14">
-        <v>0.97714599404813496</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="L14">
-        <v>0.97725893605339964</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="M14">
-        <v>0.97142361813401135</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="N14">
-        <v>0.96834802717155655</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="O14">
-        <v>0.97578015836050302</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="P14">
-        <v>0.97522633984454599</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="Q14">
-        <v>0.97545388525780685</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="R14">
-        <v>0.97745234774523482</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="S14">
-        <v>0.96848220769789395</v>
+        <v>0.93899999999999995</v>
       </c>
       <c r="T14">
-        <v>0.96729216290013365</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="U14">
-        <v>0.96494030847881029</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="V14">
-        <v>0.9626165509629071</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="W14">
-        <v>0.96679545652615984</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="X14">
-        <v>0.96090164410619883</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="Y14">
-        <v>0.96145467220495551</v>
+        <v>0.93700000000000006</v>
       </c>
       <c r="Z14">
-        <v>0.96435936909983444</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="AA14">
-        <v>0.96264451286818109</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="AB14">
-        <v>0.96784500537368934</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="AC14">
-        <v>0.96394599126839564</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="AD14">
-        <v>0.96504669114458352</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="AE14">
-        <v>0.96409959467284312</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="AF14">
-        <v>0.9568125636178566</v>
+        <v>0.96</v>
       </c>
       <c r="AG14">
-        <v>0.95686821975976499</v>
+        <v>0.96</v>
+      </c>
+      <c r="AH14">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="AI14">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="AJ14">
+        <v>0.95799999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B15">
-        <v>0.94925775188124029</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="C15">
-        <v>0.94562233514397531</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="D15">
-        <v>0.940407782282764</v>
+        <v>0.97099999999999997</v>
       </c>
       <c r="E15">
-        <v>0.94799171601085086</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="F15">
-        <v>0.95398657093858086</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="G15">
-        <v>0.95817800559179878</v>
+        <v>0.96699999999999997</v>
       </c>
       <c r="H15">
-        <v>0.9531806468425168</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="I15">
-        <v>0.95549700321394448</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="J15">
-        <v>0.95438071679226832</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="K15">
-        <v>0.9603883158533415</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="L15">
-        <v>0.95645389661051239</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="M15">
-        <v>0.95119766534716399</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="N15">
-        <v>0.94927012574071401</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="O15">
-        <v>0.94084769445738248</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="P15">
-        <v>0.94203953305580623</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="Q15">
-        <v>0.94059549745824256</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="R15">
-        <v>0.93677359367735935</v>
+        <v>0.95</v>
       </c>
       <c r="S15">
-        <v>0.93246187363834421</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="T15">
-        <v>0.93127287515250101</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="U15">
-        <v>0.93763615766694752</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="V15">
-        <v>0.93647427890899593</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="W15">
-        <v>0.93542108473985408</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="X15">
-        <v>0.94114913147040036</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="Y15">
-        <v>0.94054085456182657</v>
+        <v>0.97</v>
       </c>
       <c r="Z15">
-        <v>0.93937897580387486</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="AA15">
-        <v>0.93940626270841809</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="AB15">
-        <v>0.94112179394080231</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="AC15">
-        <v>0.94891144071471945</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="AD15">
-        <v>0.95001300991644744</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="AE15">
-        <v>0.94904458598726116</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="AF15">
-        <v>0.9568125636178566</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="AG15">
-        <v>0.95686821975976499</v>
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="AH15">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="AI15">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="AJ15">
+        <v>0.95699999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B16">
-        <v>0.93754575000731999</v>
+        <v>0.98899999999999999</v>
       </c>
       <c r="C16">
-        <v>0.93978155481572345</v>
+        <v>0.98699999999999999</v>
       </c>
       <c r="D16">
-        <v>0.94915847504594109</v>
+        <v>0.99</v>
       </c>
       <c r="E16">
-        <v>0.94682495697576052</v>
+        <v>0.98799999999999999</v>
       </c>
       <c r="F16">
-        <v>0.95631194953928433</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="G16">
-        <v>0.95118825722274003</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="H16">
-        <v>0.95665518139965844</v>
+        <v>0.97899999999999998</v>
       </c>
       <c r="I16">
-        <v>0.95781335958537228</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="J16">
-        <v>0.96185928780992924</v>
+        <v>0.97099999999999997</v>
       </c>
       <c r="K16">
-        <v>0.9632775707145127</v>
+        <v>0.97699999999999998</v>
       </c>
       <c r="L16">
-        <v>0.95760973213511724</v>
+        <v>0.97699999999999998</v>
       </c>
       <c r="M16">
-        <v>0.95408708717385649</v>
+        <v>0.97099999999999997</v>
       </c>
       <c r="N16">
-        <v>0.95967625379390087</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="O16">
-        <v>0.96937587331159758</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="P16">
-        <v>0.96591074495647877</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="Q16">
-        <v>0.96848220769789395</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="R16">
-        <v>0.96524872152487218</v>
+        <v>0.97699999999999998</v>
       </c>
       <c r="S16">
-        <v>0.96092955700798843</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="T16">
-        <v>0.94812060651832919</v>
+        <v>0.96699999999999997</v>
       </c>
       <c r="U16">
-        <v>0.94402649083568135</v>
+        <v>0.96499999999999997</v>
       </c>
       <c r="V16">
-        <v>0.94925494524646359</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="W16">
-        <v>0.94355518112889636</v>
+        <v>0.96699999999999997</v>
       </c>
       <c r="X16">
-        <v>0.9423110439783885</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="Y16">
-        <v>0.9422836726987539</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="Z16">
-        <v>0.93879803642489912</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="AA16">
-        <v>0.93998721896241211</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="AB16">
-        <v>0.95332152089929423</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="AC16">
-        <v>0.94775493682597511</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="AD16">
-        <v>0.95232588395154527</v>
+        <v>0.96499999999999997</v>
       </c>
       <c r="AE16">
-        <v>0.9559930515344528</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="AF16">
-        <v>0.95332266976879454</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="AG16">
-        <v>0.95105139167611896</v>
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="AH16">
+        <v>0.95</v>
+      </c>
+      <c r="AI16">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="AJ16">
+        <v>0.94799999999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B17">
-        <v>0.97795215647234501</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="C17">
-        <v>0.97424215875240938</v>
+        <v>0.94</v>
       </c>
       <c r="D17">
-        <v>0.97074351719511121</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="E17">
-        <v>0.96315958346702446</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="F17">
-        <v>0.96561346394209802</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="G17">
-        <v>0.96691519105312207</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="H17">
-        <v>0.96418333960679858</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="I17">
-        <v>0.96765787416394022</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="J17">
-        <v>0.96588621066559288</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="K17">
-        <v>0.95692121001993591</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="L17">
-        <v>0.95703181437281482</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="M17">
-        <v>0.95293131844317946</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="N17">
-        <v>0.94753577106518283</v>
+        <v>0.96</v>
       </c>
       <c r="O17">
-        <v>0.9484163949697253</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="P17">
-        <v>0.94203953305580623</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="Q17">
-        <v>0.94117647058823528</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="R17">
-        <v>0.94955834495583447</v>
+        <v>0.96499999999999997</v>
       </c>
       <c r="S17">
-        <v>0.95163398692810452</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="T17">
-        <v>0.96090164410619883</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="U17">
-        <v>0.95448339965724582</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="V17">
-        <v>0.95564527841519742</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="W17">
-        <v>0.95575632571245961</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="X17">
-        <v>0.9632254691221751</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="Y17">
-        <v>0.97016876288959253</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="Z17">
-        <v>0.96900688413164093</v>
+        <v>0.93899999999999995</v>
       </c>
       <c r="AA17">
-        <v>0.96787311915412777</v>
+        <v>0.94</v>
       </c>
       <c r="AB17">
-        <v>0.96087373282597965</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="AC17">
-        <v>0.96568074710151219</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="AD17">
-        <v>0.96389025412703455</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="AE17">
-        <v>0.95657209033005208</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="AF17">
-        <v>0.94866947797004508</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="AG17">
-        <v>0.94872466044266057</v>
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="AH17">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="AI17">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="AJ17">
+        <v>0.94099999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B18">
-        <v>0.92583374813339969</v>
+        <v>0.92600000000000005</v>
       </c>
       <c r="C18">
-        <v>0.9228432918637931</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="D18">
-        <v>0.91998949916868411</v>
+        <v>0.92</v>
       </c>
       <c r="E18">
-        <v>0.92232301723886467</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="F18">
-        <v>0.92898875098101907</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="G18">
-        <v>0.92555917986952474</v>
+        <v>0.92600000000000005</v>
       </c>
       <c r="H18">
-        <v>0.93001708312823927</v>
+        <v>0.93</v>
       </c>
       <c r="I18">
-        <v>0.92827981584966857</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="J18">
-        <v>0.92676753149628954</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="K18">
-        <v>0.94074138279737662</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="L18">
-        <v>0.94085011702834687</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="M18">
-        <v>0.94657459042445602</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="N18">
-        <v>0.94637953461482871</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="O18">
-        <v>0.94550535631113186</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="P18">
-        <v>0.94436843177782304</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="Q18">
-        <v>0.94001452432824983</v>
+        <v>0.94</v>
       </c>
       <c r="R18">
-        <v>0.9327057182705718</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="S18">
-        <v>0.93129992737835876</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="T18">
-        <v>0.93185383140649514</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="U18">
-        <v>0.93589333953002007</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="V18">
-        <v>0.93473146077206848</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="W18">
-        <v>0.93600209162478576</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="X18">
-        <v>0.93533956893045955</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="Y18">
-        <v>0.9300839457402621</v>
+        <v>0.93</v>
       </c>
       <c r="Z18">
-        <v>0.9265983094664072</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="AA18">
-        <v>0.92894905013652473</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="AB18">
-        <v>0.93589333953002007</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="AC18">
-        <v>0.93676814988290402</v>
+        <v>0.93700000000000006</v>
       </c>
       <c r="AD18">
-        <v>0.9442308248287028</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="AE18">
-        <v>0.95078170237405901</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="AF18">
-        <v>0.9463428820706703</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="AG18">
-        <v>0.94639792920920218</v>
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="AH18">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="AI18">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="AJ18">
+        <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B19">
-        <v>0.97209615553538486</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="C19">
-        <v>0.96898545645698275</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="D19">
-        <v>0.97541055333547233</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="E19">
-        <v>0.97657731237056267</v>
+        <v>0.97699999999999998</v>
       </c>
       <c r="F19">
-        <v>0.97840304624596686</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="G19">
-        <v>0.97448741845293574</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="H19">
-        <v>0.96939514144251093</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="I19">
-        <v>0.97286967599965257</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="J19">
-        <v>0.96818730944025777</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="K19">
-        <v>0.96385542168674698</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="L19">
-        <v>0.96974600514346809</v>
+        <v>0.97</v>
       </c>
       <c r="M19">
-        <v>0.96968996503799587</v>
+        <v>0.97</v>
       </c>
       <c r="N19">
-        <v>0.97008238184708773</v>
+        <v>0.97</v>
       </c>
       <c r="O19">
-        <v>0.96588262692128557</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="P19">
-        <v>0.96125294751244506</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="Q19">
-        <v>0.96441539578794477</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="R19">
-        <v>0.96234309623430969</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="S19">
-        <v>0.95860566448801743</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="T19">
-        <v>0.94928251902631733</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="U19">
-        <v>0.95448339965724582</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="V19">
-        <v>0.95390246027826997</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="W19">
-        <v>0.95168927751793853</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="X19">
-        <v>0.94579678150235291</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="Y19">
-        <v>0.94402649083568135</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="Z19">
-        <v>0.94809306648851199</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="AA19">
-        <v>0.94695869401034105</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="AB19">
-        <v>0.9434455514567055</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="AC19">
-        <v>0.94197241738225346</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="AD19">
-        <v>0.94480904333747717</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="AE19">
-        <v>0.94614939200926462</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="AF19">
-        <v>0.94517958412098302</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="AG19">
-        <v>0.94058110112555615</v>
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="AH19">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="AI19">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="AJ19">
+        <v>0.93799999999999994</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B20">
-        <v>0.9615553538488566</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="C20">
-        <v>0.96548098826003159</v>
+        <v>0.96499999999999997</v>
       </c>
       <c r="D20">
-        <v>0.97074351719511121</v>
+        <v>0.97099999999999997</v>
       </c>
       <c r="E20">
-        <v>0.96957675816002098</v>
+        <v>0.97</v>
       </c>
       <c r="F20">
-        <v>0.96212539604104286</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="G20">
-        <v>0.96167287977632809</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="H20">
-        <v>0.95897153777108612</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="I20">
-        <v>0.95781335958537228</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="J20">
-        <v>0.95725709026059946</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="K20">
-        <v>0.95634335904770162</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="L20">
-        <v>0.95414222556130268</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="M20">
-        <v>0.94888612788581006</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="N20">
-        <v>0.94522329816447459</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="O20">
-        <v>0.95016301816488125</v>
+        <v>0.95</v>
       </c>
       <c r="P20">
-        <v>0.94902622922185675</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="Q20">
-        <v>0.94756717501815546</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="R20">
-        <v>0.94374709437470949</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="S20">
-        <v>0.94756717501815546</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="T20">
-        <v>0.94579678150235291</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="U20">
-        <v>0.94054085456182657</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="V20">
-        <v>0.94112179394080231</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="W20">
-        <v>0.94355518112889636</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="X20">
-        <v>0.93998721896241211</v>
+        <v>0.94</v>
       </c>
       <c r="Y20">
-        <v>0.94518836959363295</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="Z20">
-        <v>0.94751212710953614</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="AA20">
-        <v>0.94579678150235291</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="AB20">
-        <v>0.94112179394080231</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="AC20">
-        <v>0.93850290571602057</v>
+        <v>0.93899999999999995</v>
       </c>
       <c r="AD20">
-        <v>0.93208823614443892</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="AE20">
-        <v>0.92877822814128541</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="AF20">
-        <v>0.92249527410207943</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="AG20">
-        <v>0.91964052002443064</v>
+        <v>0.92</v>
+      </c>
+      <c r="AH20">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="AI20">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="AJ20">
+        <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B21">
-        <v>0.86141773782683806</v>
+        <v>0.86099999999999999</v>
       </c>
       <c r="C21">
-        <v>0.87553297120495299</v>
+        <v>0.876</v>
       </c>
       <c r="D21">
-        <v>0.88090307149315983</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="E21">
-        <v>0.88265321004579522</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="F21">
-        <v>0.88015580036624708</v>
+        <v>0.88</v>
       </c>
       <c r="G21">
-        <v>0.88187325256290772</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="H21">
-        <v>0.88542722297825527</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="I21">
-        <v>0.88311086660682747</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="J21">
-        <v>0.92676753149628954</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="K21">
-        <v>0.88873479529629307</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="L21">
-        <v>0.88768168289652383</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="M21">
-        <v>0.89340922881331442</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="N21">
-        <v>0.88856771209712382</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="O21">
-        <v>0.88786679087098286</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="P21">
-        <v>0.88672818840790668</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="Q21">
-        <v>0.88366013071895422</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="R21">
-        <v>0.89144583914458397</v>
+        <v>0.89100000000000001</v>
       </c>
       <c r="S21">
-        <v>0.88946986201888167</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="T21">
-        <v>0.90222506245279732</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="U21">
-        <v>0.90452261306532666</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="V21">
-        <v>0.90510355244430252</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="W21">
-        <v>0.90637074049327482</v>
+        <v>0.90600000000000003</v>
       </c>
       <c r="X21">
-        <v>0.90338697496078546</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="Y21">
-        <v>0.89638946175966538</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="Z21">
-        <v>0.89232288610683475</v>
+        <v>0.89200000000000002</v>
       </c>
       <c r="AA21">
-        <v>0.89060593737291582</v>
+        <v>0.89100000000000001</v>
       </c>
       <c r="AB21">
-        <v>0.88941818921195581</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="AC21">
-        <v>0.90033827738745775</v>
+        <v>0.9</v>
       </c>
       <c r="AD21">
-        <v>0.90664662175836241</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="AE21">
-        <v>0.90619571511291253</v>
+        <v>0.90600000000000003</v>
       </c>
       <c r="AF21">
-        <v>0.90679075178129998</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="AG21">
-        <v>0.90044498734839884</v>
+        <v>0.9</v>
+      </c>
+      <c r="AH21">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="AI21">
+        <v>0.9</v>
+      </c>
+      <c r="AJ21">
+        <v>0.90500000000000003</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>